--- a/Documentation/Group_16_Smells_Analysis.xlsx
+++ b/Documentation/Group_16_Smells_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\welcome\Desktop\Dal Coursework\Winter_2022\CSCI 5308\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543E78AF-0F19-496C-9B93-3E64B5D80166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87081914-B5CC-4613-A64D-3D49B4633AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D627CF3C-7D3F-443A-A2B4-3623376BAF05}"/>
   </bookViews>
@@ -940,9 +940,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1012,95 +1009,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="8"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1156,13 +1072,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1177,6 +1086,97 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1257,30 +1257,30 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DABE145-BB2A-4147-9A91-99AD482CB27E}" name="Table4" displayName="Table4" ref="A79:I136" totalsRowShown="0" headerRowDxfId="10" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DABE145-BB2A-4147-9A91-99AD482CB27E}" name="Table4" displayName="Table4" ref="A79:I136" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A79:I136" xr:uid="{FA753889-D6C2-4B6E-B939-3B4CF45F50C5}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{EEC9EF43-1960-4FC8-8DF8-A2BF34648030}" name="Project Name" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{E3CAD0FD-0379-40EC-A5DE-D24359153BE0}" name="Package Name" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{3E518F39-6405-4C91-AC8E-EE83D30A58B4}" name="Type Name" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{8832A258-A6CC-4663-945E-49DC7221E9C6}" name="Method Name" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{0D5D2383-745E-410D-959C-3DF3415CAF72}" name="Smell Category" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{FCD38D56-DC6B-496B-87C4-0F73EC41C4C7}" name="Smell" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{099BB656-A7B8-4AD2-8B10-06B1560BE33B}" name="Cause of the Smell" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{F96A0E56-7CEF-4195-B8A0-C7C9913665DA}" name="Method start line no" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{912615F5-A0B3-4462-ACD4-152F19D85D11}" name="Rationale for Acceptance of Smell" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{EEC9EF43-1960-4FC8-8DF8-A2BF34648030}" name="Project Name" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{E3CAD0FD-0379-40EC-A5DE-D24359153BE0}" name="Package Name" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{3E518F39-6405-4C91-AC8E-EE83D30A58B4}" name="Type Name" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{8832A258-A6CC-4663-945E-49DC7221E9C6}" name="Method Name" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{0D5D2383-745E-410D-959C-3DF3415CAF72}" name="Smell Category" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{FCD38D56-DC6B-496B-87C4-0F73EC41C4C7}" name="Smell" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{099BB656-A7B8-4AD2-8B10-06B1560BE33B}" name="Cause of the Smell" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{F96A0E56-7CEF-4195-B8A0-C7C9913665DA}" name="Method start line no" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{912615F5-A0B3-4462-ACD4-152F19D85D11}" name="Rationale for Acceptance of Smell" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B629A12F-C0D4-43EF-A22C-B072EC2F8523}" name="Table7" displayName="Table7" ref="A67:C73" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="17" tableBorderDxfId="18" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B629A12F-C0D4-43EF-A22C-B072EC2F8523}" name="Table7" displayName="Table7" ref="A67:C73" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A67:C73" xr:uid="{2F024144-6B6A-47BF-8430-58FF90DC055A}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AC3BDCB6-2DFF-4C30-A232-E21084877D36}" name="Smell Category" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{4C2D4644-2F34-418B-8DD7-DE14E9CE2302}" name="Smell" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{030A6088-C8EF-4BB1-B42F-D8D98DCCE0B5}" name="Number of Instance" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{AC3BDCB6-2DFF-4C30-A232-E21084877D36}" name="Smell Category" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{4C2D4644-2F34-418B-8DD7-DE14E9CE2302}" name="Smell" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{030A6088-C8EF-4BB1-B42F-D8D98DCCE0B5}" name="Number of Instance" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1586,7 +1586,7 @@
   <dimension ref="A2:V136"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:V2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,59 +1598,59 @@
     <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="135" style="3" customWidth="1"/>
-    <col min="8" max="8" width="52.85546875" style="19" customWidth="1"/>
+    <col min="8" max="8" width="52.85546875" style="18" customWidth="1"/>
     <col min="9" max="9" width="79" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-    </row>
-    <row r="3" spans="1:22" s="17" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+    </row>
+    <row r="3" spans="1:22" s="16" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
     </row>
     <row r="4" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
@@ -1671,7 +1671,7 @@
       <c r="G4" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="21">
         <v>46</v>
       </c>
     </row>
@@ -1758,1341 +1758,1341 @@
     </row>
     <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="26" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="28" t="s">
+    <row r="16" spans="1:22" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" s="28" t="s">
+      <c r="D16" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="H16" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="I16" s="28" t="s">
+      <c r="H16" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16" s="27" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="39" t="s">
+      <c r="A17" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G17" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="38">
         <v>56</v>
       </c>
-      <c r="I17" s="39" t="s">
+      <c r="I17" s="38" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="39" t="s">
+      <c r="A18" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="F18" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="38">
         <v>102</v>
       </c>
-      <c r="I18" s="39" t="s">
+      <c r="I18" s="38" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="39" t="s">
+      <c r="A19" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="F19" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="38">
         <v>19</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="I19" s="38" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="39" t="s">
+      <c r="A20" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="39" t="s">
+      <c r="F20" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="39" t="s">
+      <c r="G20" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="38">
         <v>137</v>
       </c>
-      <c r="I20" s="39" t="s">
+      <c r="I20" s="38" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="40" t="s">
+      <c r="A21" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="H21" s="40">
+      <c r="H21" s="39">
         <v>46</v>
       </c>
-      <c r="I21" s="40" t="s">
+      <c r="I21" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="40" t="s">
+      <c r="A22" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="40" t="s">
+      <c r="G22" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="H22" s="40">
+      <c r="H22" s="39">
         <v>46</v>
       </c>
-      <c r="I22" s="40" t="s">
+      <c r="I22" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="40" t="s">
+      <c r="A23" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F23" s="40" t="s">
+      <c r="F23" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G23" s="40" t="s">
+      <c r="G23" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="H23" s="40">
+      <c r="H23" s="39">
         <v>32</v>
       </c>
-      <c r="I23" s="40" t="s">
+      <c r="I23" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="40" t="s">
+      <c r="A24" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="D24" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="40" t="s">
+      <c r="F24" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G24" s="40" t="s">
+      <c r="G24" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="H24" s="40">
+      <c r="H24" s="39">
         <v>32</v>
       </c>
-      <c r="I24" s="40" t="s">
+      <c r="I24" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="40" t="s">
+      <c r="A25" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="40" t="s">
+      <c r="F25" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G25" s="40" t="s">
+      <c r="G25" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="H25" s="40">
+      <c r="H25" s="39">
         <v>32</v>
       </c>
-      <c r="I25" s="40" t="s">
+      <c r="I25" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="40" t="s">
+      <c r="A26" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G26" s="40" t="s">
+      <c r="G26" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="H26" s="40">
+      <c r="H26" s="39">
         <v>22</v>
       </c>
-      <c r="I26" s="40" t="s">
+      <c r="I26" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="40" t="s">
+      <c r="A27" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="40" t="s">
+      <c r="F27" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G27" s="40" t="s">
+      <c r="G27" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="H27" s="40">
+      <c r="H27" s="39">
         <v>38</v>
       </c>
-      <c r="I27" s="40" t="s">
+      <c r="I27" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="40" t="s">
+      <c r="A28" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="40" t="s">
+      <c r="D28" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G28" s="40" t="s">
+      <c r="G28" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="H28" s="40">
+      <c r="H28" s="39">
         <v>24</v>
       </c>
-      <c r="I28" s="40" t="s">
+      <c r="I28" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="40" t="s">
+      <c r="A29" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="D29" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="E29" s="40" t="s">
+      <c r="E29" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="40" t="s">
+      <c r="F29" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G29" s="40" t="s">
+      <c r="G29" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="H29" s="40">
+      <c r="H29" s="39">
         <v>38</v>
       </c>
-      <c r="I29" s="40" t="s">
+      <c r="I29" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="40" t="s">
+      <c r="A30" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="E30" s="40" t="s">
+      <c r="E30" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="40" t="s">
+      <c r="F30" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G30" s="40" t="s">
+      <c r="G30" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="H30" s="40">
+      <c r="H30" s="39">
         <v>68</v>
       </c>
-      <c r="I30" s="40" t="s">
+      <c r="I30" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="40" t="s">
+      <c r="A31" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="E31" s="40" t="s">
+      <c r="E31" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F31" s="40" t="s">
+      <c r="F31" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G31" s="40" t="s">
+      <c r="G31" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="H31" s="40">
-        <v>20</v>
-      </c>
-      <c r="I31" s="40" t="s">
+      <c r="H31" s="39">
+        <v>20</v>
+      </c>
+      <c r="I31" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="40" t="s">
+      <c r="A32" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="E32" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F32" s="40" t="s">
+      <c r="F32" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G32" s="40" t="s">
+      <c r="G32" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="H32" s="40">
+      <c r="H32" s="39">
         <v>28</v>
       </c>
-      <c r="I32" s="40" t="s">
+      <c r="I32" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="40" t="s">
+      <c r="A33" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="E33" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G33" s="40" t="s">
+      <c r="G33" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="H33" s="40">
+      <c r="H33" s="39">
         <v>102</v>
       </c>
-      <c r="I33" s="40" t="s">
+      <c r="I33" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="40" t="s">
+      <c r="A34" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="40" t="s">
+      <c r="D34" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="40" t="s">
+      <c r="F34" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G34" s="40" t="s">
+      <c r="G34" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="H34" s="40">
+      <c r="H34" s="39">
         <v>102</v>
       </c>
-      <c r="I34" s="40" t="s">
+      <c r="I34" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="40" t="s">
+      <c r="A35" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="40" t="s">
+      <c r="D35" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F35" s="40" t="s">
+      <c r="F35" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G35" s="40" t="s">
+      <c r="G35" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="H35" s="40">
+      <c r="H35" s="39">
         <v>22</v>
       </c>
-      <c r="I35" s="40" t="s">
+      <c r="I35" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="40" t="s">
+      <c r="A36" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="40" t="s">
+      <c r="D36" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="E36" s="40" t="s">
+      <c r="E36" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F36" s="40" t="s">
+      <c r="F36" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G36" s="40" t="s">
+      <c r="G36" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="H36" s="40">
+      <c r="H36" s="39">
         <v>40</v>
       </c>
-      <c r="I36" s="40" t="s">
+      <c r="I36" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="40" t="s">
+      <c r="A37" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="40" t="s">
+      <c r="D37" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="E37" s="40" t="s">
+      <c r="E37" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F37" s="40" t="s">
+      <c r="F37" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G37" s="40" t="s">
+      <c r="G37" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="H37" s="40">
+      <c r="H37" s="39">
         <v>65</v>
       </c>
-      <c r="I37" s="40" t="s">
+      <c r="I37" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="40" t="s">
+      <c r="A38" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="D38" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="E38" s="40" t="s">
+      <c r="E38" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F38" s="40" t="s">
+      <c r="F38" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G38" s="40" t="s">
+      <c r="G38" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="H38" s="40">
+      <c r="H38" s="39">
         <v>81</v>
       </c>
-      <c r="I38" s="40" t="s">
+      <c r="I38" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="40" t="s">
+      <c r="A39" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="40" t="s">
+      <c r="C39" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="40" t="s">
+      <c r="D39" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="E39" s="40" t="s">
+      <c r="E39" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F39" s="40" t="s">
+      <c r="F39" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G39" s="40" t="s">
+      <c r="G39" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="H39" s="40">
+      <c r="H39" s="39">
         <v>22</v>
       </c>
-      <c r="I39" s="40" t="s">
+      <c r="I39" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="40" t="s">
+      <c r="A40" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="40" t="s">
+      <c r="D40" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="E40" s="40" t="s">
+      <c r="E40" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F40" s="40" t="s">
+      <c r="F40" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G40" s="40" t="s">
+      <c r="G40" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="H40" s="40">
+      <c r="H40" s="39">
         <v>36</v>
       </c>
-      <c r="I40" s="40" t="s">
+      <c r="I40" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="40" t="s">
+      <c r="A41" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="40" t="s">
+      <c r="D41" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="E41" s="40" t="s">
+      <c r="E41" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F41" s="40" t="s">
+      <c r="F41" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G41" s="40" t="s">
+      <c r="G41" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="H41" s="40">
+      <c r="H41" s="39">
         <v>51</v>
       </c>
-      <c r="I41" s="40" t="s">
+      <c r="I41" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="40" t="s">
+      <c r="A42" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="C42" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="40" t="s">
+      <c r="D42" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="E42" s="40" t="s">
+      <c r="E42" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F42" s="40" t="s">
+      <c r="F42" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G42" s="40" t="s">
+      <c r="G42" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="H42" s="40">
+      <c r="H42" s="39">
         <v>67</v>
       </c>
-      <c r="I42" s="40" t="s">
+      <c r="I42" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="40" t="s">
+      <c r="A43" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="40" t="s">
+      <c r="D43" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="E43" s="40" t="s">
+      <c r="E43" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F43" s="40" t="s">
+      <c r="F43" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G43" s="40" t="s">
+      <c r="G43" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="H43" s="40">
+      <c r="H43" s="39">
         <v>26</v>
       </c>
-      <c r="I43" s="40" t="s">
+      <c r="I43" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="40" t="s">
+      <c r="A44" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="40" t="s">
+      <c r="D44" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="E44" s="40" t="s">
+      <c r="E44" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F44" s="40" t="s">
+      <c r="F44" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G44" s="40" t="s">
+      <c r="G44" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="H44" s="40">
+      <c r="H44" s="39">
         <v>42</v>
       </c>
-      <c r="I44" s="40" t="s">
+      <c r="I44" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="40" t="s">
+      <c r="A45" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="40" t="s">
+      <c r="C45" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="D45" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="E45" s="40" t="s">
+      <c r="E45" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F45" s="40" t="s">
+      <c r="F45" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G45" s="40" t="s">
+      <c r="G45" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="H45" s="40">
+      <c r="H45" s="39">
         <v>73</v>
       </c>
-      <c r="I45" s="40" t="s">
+      <c r="I45" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="40" t="s">
+      <c r="A46" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="40" t="s">
+      <c r="C46" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="40" t="s">
+      <c r="D46" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="E46" s="40" t="s">
+      <c r="E46" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F46" s="40" t="s">
+      <c r="F46" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G46" s="40" t="s">
+      <c r="G46" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="H46" s="40">
+      <c r="H46" s="39">
         <v>114</v>
       </c>
-      <c r="I46" s="40" t="s">
+      <c r="I46" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="40" t="s">
+      <c r="A47" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="40" t="s">
+      <c r="C47" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="40" t="s">
+      <c r="D47" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="E47" s="40" t="s">
+      <c r="E47" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F47" s="40" t="s">
+      <c r="F47" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G47" s="40" t="s">
+      <c r="G47" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="H47" s="40">
+      <c r="H47" s="39">
         <v>105</v>
       </c>
-      <c r="I47" s="40" t="s">
+      <c r="I47" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="40" t="s">
+      <c r="A48" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="40" t="s">
+      <c r="C48" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D48" s="40" t="s">
+      <c r="D48" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="E48" s="40" t="s">
+      <c r="E48" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F48" s="40" t="s">
+      <c r="F48" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G48" s="40" t="s">
+      <c r="G48" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="H48" s="40">
+      <c r="H48" s="39">
         <v>108</v>
       </c>
-      <c r="I48" s="40" t="s">
+      <c r="I48" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="40" t="s">
+      <c r="A49" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="40" t="s">
+      <c r="C49" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="D49" s="40" t="s">
+      <c r="D49" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="E49" s="40" t="s">
+      <c r="E49" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F49" s="40" t="s">
+      <c r="F49" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G49" s="40" t="s">
+      <c r="G49" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="H49" s="40">
+      <c r="H49" s="39">
         <v>90</v>
       </c>
-      <c r="I49" s="40" t="s">
+      <c r="I49" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="40" t="s">
+      <c r="A50" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="40" t="s">
+      <c r="C50" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="40" t="s">
+      <c r="D50" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="E50" s="40" t="s">
+      <c r="E50" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F50" s="40" t="s">
+      <c r="F50" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G50" s="40" t="s">
+      <c r="G50" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="H50" s="40">
+      <c r="H50" s="39">
         <v>163</v>
       </c>
-      <c r="I50" s="40" t="s">
+      <c r="I50" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="40" t="s">
+      <c r="A51" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="40" t="s">
+      <c r="C51" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="D51" s="40" t="s">
+      <c r="D51" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="E51" s="40" t="s">
+      <c r="E51" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F51" s="40" t="s">
+      <c r="F51" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G51" s="40" t="s">
+      <c r="G51" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="H51" s="40">
+      <c r="H51" s="39">
         <v>174</v>
       </c>
-      <c r="I51" s="40" t="s">
+      <c r="I51" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="40" t="s">
+      <c r="A52" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="40" t="s">
+      <c r="C52" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="D52" s="40" t="s">
+      <c r="D52" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="E52" s="40" t="s">
+      <c r="E52" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F52" s="40" t="s">
+      <c r="F52" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G52" s="40" t="s">
+      <c r="G52" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="H52" s="40">
+      <c r="H52" s="39">
         <v>102</v>
       </c>
-      <c r="I52" s="40" t="s">
+      <c r="I52" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="40" t="s">
+      <c r="A53" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="40" t="s">
+      <c r="C53" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D53" s="40" t="s">
+      <c r="D53" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="E53" s="40" t="s">
+      <c r="E53" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F53" s="40" t="s">
+      <c r="F53" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G53" s="40" t="s">
+      <c r="G53" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="H53" s="40">
+      <c r="H53" s="39">
         <v>48</v>
       </c>
-      <c r="I53" s="40" t="s">
+      <c r="I53" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" s="40" t="s">
+      <c r="A54" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C54" s="40" t="s">
+      <c r="C54" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D54" s="40" t="s">
+      <c r="D54" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="E54" s="40" t="s">
+      <c r="E54" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F54" s="40" t="s">
+      <c r="F54" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G54" s="40" t="s">
+      <c r="G54" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="H54" s="40">
+      <c r="H54" s="39">
         <v>131</v>
       </c>
-      <c r="I54" s="40" t="s">
+      <c r="I54" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="40" t="s">
+      <c r="A55" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="40" t="s">
+      <c r="C55" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D55" s="40" t="s">
+      <c r="D55" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="E55" s="40" t="s">
+      <c r="E55" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F55" s="40" t="s">
+      <c r="F55" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G55" s="40" t="s">
+      <c r="G55" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="H55" s="40">
+      <c r="H55" s="39">
         <v>131</v>
       </c>
-      <c r="I55" s="40" t="s">
+      <c r="I55" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" s="40" t="s">
+      <c r="A56" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="40" t="s">
+      <c r="C56" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="40" t="s">
+      <c r="D56" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="E56" s="40" t="s">
+      <c r="E56" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F56" s="40" t="s">
+      <c r="F56" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G56" s="40" t="s">
+      <c r="G56" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="H56" s="40">
+      <c r="H56" s="39">
         <v>22</v>
       </c>
-      <c r="I56" s="40" t="s">
+      <c r="I56" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" s="40" t="s">
+      <c r="A57" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="40" t="s">
+      <c r="C57" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="40" t="s">
+      <c r="D57" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="E57" s="40" t="s">
+      <c r="E57" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F57" s="40" t="s">
+      <c r="F57" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G57" s="40" t="s">
+      <c r="G57" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="H57" s="40">
+      <c r="H57" s="39">
         <v>39</v>
       </c>
-      <c r="I57" s="40" t="s">
+      <c r="I57" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" s="40" t="s">
+      <c r="A58" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="40" t="s">
+      <c r="C58" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D58" s="40" t="s">
+      <c r="D58" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="E58" s="40" t="s">
+      <c r="E58" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F58" s="40" t="s">
+      <c r="F58" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G58" s="40" t="s">
+      <c r="G58" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="H58" s="40">
+      <c r="H58" s="39">
         <v>103</v>
       </c>
-      <c r="I58" s="40" t="s">
+      <c r="I58" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" s="40" t="s">
+      <c r="A59" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="40" t="s">
+      <c r="C59" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D59" s="40" t="s">
+      <c r="D59" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="E59" s="40" t="s">
+      <c r="E59" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F59" s="40" t="s">
+      <c r="F59" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G59" s="40" t="s">
+      <c r="G59" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="H59" s="40">
+      <c r="H59" s="39">
         <v>103</v>
       </c>
-      <c r="I59" s="40" t="s">
+      <c r="I59" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="40" t="s">
+      <c r="A60" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="40" t="s">
+      <c r="C60" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D60" s="40" t="s">
+      <c r="D60" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="E60" s="40" t="s">
+      <c r="E60" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F60" s="40" t="s">
+      <c r="F60" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G60" s="40" t="s">
+      <c r="G60" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="H60" s="40">
-        <v>21</v>
-      </c>
-      <c r="I60" s="40" t="s">
+      <c r="H60" s="39">
+        <v>21</v>
+      </c>
+      <c r="I60" s="39" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3102,114 +3102,114 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="29" t="s">
+      <c r="A67" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B67" s="30" t="s">
+      <c r="B67" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C67" s="31" t="s">
+      <c r="C67" s="30" t="s">
         <v>101</v>
       </c>
       <c r="E67" s="6"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B68" s="33" t="s">
+      <c r="B68" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="C68" s="34">
+      <c r="C68" s="33">
         <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="32" t="s">
+      <c r="A69" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="33" t="s">
+      <c r="B69" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="34">
+      <c r="C69" s="33">
         <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="32" t="s">
+      <c r="A70" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B70" s="33" t="s">
+      <c r="B70" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="C70" s="34">
+      <c r="C70" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="32" t="s">
+      <c r="A71" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B71" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C71" s="34">
+      <c r="B71" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" s="33">
         <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="32" t="s">
+      <c r="A72" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B72" s="33" t="s">
+      <c r="B72" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C72" s="34">
+      <c r="C72" s="33">
         <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="35" t="s">
+      <c r="A73" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="B73" s="36" t="s">
+      <c r="B73" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C73" s="37">
+      <c r="C73" s="36">
         <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A78" s="24" t="s">
+      <c r="A78" s="23" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="23" t="s">
+      <c r="A79" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B79" s="23" t="s">
+      <c r="B79" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C79" s="23" t="s">
+      <c r="C79" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D79" s="23" t="s">
+      <c r="D79" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E79" s="23" t="s">
+      <c r="E79" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="F79" s="23" t="s">
+      <c r="F79" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="G79" s="23" t="s">
+      <c r="G79" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H79" s="23" t="s">
+      <c r="H79" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="I79" s="23" t="s">
+      <c r="I79" s="22" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3235,7 +3235,7 @@
       <c r="G80" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="H80" s="38">
+      <c r="H80" s="37">
         <v>39</v>
       </c>
       <c r="I80" s="14" t="s">
@@ -3264,7 +3264,7 @@
       <c r="G81" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="H81" s="38">
+      <c r="H81" s="37">
         <v>37</v>
       </c>
       <c r="I81" s="14" t="s">
@@ -3293,7 +3293,7 @@
       <c r="G82" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H82" s="38">
+      <c r="H82" s="37">
         <v>42</v>
       </c>
       <c r="I82" s="14" t="s">
@@ -3322,7 +3322,7 @@
       <c r="G83" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="H83" s="38">
+      <c r="H83" s="37">
         <v>14</v>
       </c>
       <c r="I83" s="14" t="s">
@@ -3351,7 +3351,7 @@
       <c r="G84" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="H84" s="38">
+      <c r="H84" s="37">
         <v>47</v>
       </c>
       <c r="I84" s="14" t="s">
@@ -3380,7 +3380,7 @@
       <c r="G85" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="H85" s="38">
+      <c r="H85" s="37">
         <v>55</v>
       </c>
       <c r="I85" s="14" t="s">
@@ -3409,7 +3409,7 @@
       <c r="G86" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H86" s="38">
+      <c r="H86" s="37">
         <v>36</v>
       </c>
       <c r="I86" s="14" t="s">
@@ -3417,147 +3417,147 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" s="38" t="s">
+      <c r="A87" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C87" s="38" t="s">
+      <c r="C87" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D87" s="38" t="s">
+      <c r="D87" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E87" s="38" t="s">
+      <c r="E87" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="F87" s="38" t="s">
+      <c r="F87" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="G87" s="38" t="s">
+      <c r="G87" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="H87" s="38">
+      <c r="H87" s="37">
         <v>153</v>
       </c>
-      <c r="I87" s="38" t="s">
+      <c r="I87" s="37" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B88" s="38" t="s">
+      <c r="A88" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C88" s="38" t="s">
+      <c r="C88" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D88" s="38" t="s">
+      <c r="D88" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="E88" s="38" t="s">
+      <c r="E88" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="F88" s="38" t="s">
+      <c r="F88" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="G88" s="38" t="s">
+      <c r="G88" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="H88" s="38">
+      <c r="H88" s="37">
         <v>107</v>
       </c>
-      <c r="I88" s="38" t="s">
+      <c r="I88" s="37" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B89" s="38" t="s">
+      <c r="A89" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="38" t="s">
+      <c r="C89" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D89" s="38" t="s">
+      <c r="D89" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="E89" s="38" t="s">
+      <c r="E89" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="F89" s="38" t="s">
+      <c r="F89" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="G89" s="38" t="s">
+      <c r="G89" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="H89" s="38">
+      <c r="H89" s="37">
         <v>107</v>
       </c>
-      <c r="I89" s="38" t="s">
+      <c r="I89" s="37" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B90" s="38" t="s">
+      <c r="A90" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C90" s="38" t="s">
+      <c r="C90" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="38" t="s">
+      <c r="D90" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="E90" s="38" t="s">
+      <c r="E90" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="F90" s="38" t="s">
+      <c r="F90" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="G90" s="38" t="s">
+      <c r="G90" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="H90" s="38">
+      <c r="H90" s="37">
         <v>116</v>
       </c>
-      <c r="I90" s="38" t="s">
+      <c r="I90" s="37" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" s="38" t="s">
+      <c r="A91" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C91" s="38" t="s">
+      <c r="C91" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D91" s="38" t="s">
+      <c r="D91" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="E91" s="38" t="s">
+      <c r="E91" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="F91" s="38" t="s">
+      <c r="F91" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="G91" s="38" t="s">
+      <c r="G91" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H91" s="38">
+      <c r="H91" s="37">
         <v>116</v>
       </c>
-      <c r="I91" s="38" t="s">
+      <c r="I91" s="37" t="s">
         <v>111</v>
       </c>
     </row>

--- a/Documentation/Group_16_Smells_Analysis.xlsx
+++ b/Documentation/Group_16_Smells_Analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\welcome\Desktop\Dal Coursework\Winter_2022\CSCI 5308\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\welcome\Desktop\Dal Coursework\Winter_2022\CSCI 5308\SPRING PROJECT\group16\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87081914-B5CC-4613-A64D-3D49B4633AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE0E5D8-9F10-47AC-B119-301E67860CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D627CF3C-7D3F-443A-A2B4-3623376BAF05}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="195">
   <si>
     <t>Extracted Complex Conditional statements into smaller conditional statements</t>
   </si>
@@ -616,6 +616,12 @@
   </si>
   <si>
     <t xml:space="preserve">                                           CSCI 5308 - GROUP 16 - TRIP MANAGEMENT SYSTEM: SMELLS SUMMARY</t>
+  </si>
+  <si>
+    <t>The tool detected the smell in this class because it contains only data members without any method implementation. Following fields are declared in this class: USER_TYPE_CUSTOMER; USER_TYPE_VEHICLE_OWNER; GOOD; BAD; AVERAGE; INITIAL_CREDITS</t>
+  </si>
+  <si>
+    <t>Class Name</t>
   </si>
 </sst>
 </file>
@@ -904,7 +910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -932,11 +938,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -956,20 +958,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1011,6 +1004,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1245,7 +1247,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6755CAD-1576-4BF9-8B4E-8A09EEBE71AC}" name="Table3" displayName="Table3" ref="A7:D10" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6755CAD-1576-4BF9-8B4E-8A09EEBE71AC}" name="Table3" displayName="Table3" ref="A6:D9" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" tableBorderDxfId="23">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{18215B9E-CD39-4D04-9394-8366DDD80E4D}" name="Smell Category" dataDxfId="22"/>
     <tableColumn id="2" xr3:uid="{E14D365A-86FE-4D64-9E21-D32E8C8D080D}" name="Smell" dataDxfId="21"/>
@@ -1270,7 +1272,7 @@
     <tableColumn id="8" xr3:uid="{F96A0E56-7CEF-4195-B8A0-C7C9913665DA}" name="Method start line no" dataDxfId="9"/>
     <tableColumn id="9" xr3:uid="{912615F5-A0B3-4462-ACD4-152F19D85D11}" name="Rationale for Acceptance of Smell" dataDxfId="8"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1585,8 +1587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0F6571-8A5E-45E9-AF4A-EB658A1F67A9}">
   <dimension ref="A2:V136"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,1501 +1600,1507 @@
     <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="135" style="3" customWidth="1"/>
-    <col min="8" max="8" width="52.85546875" style="18" customWidth="1"/>
+    <col min="8" max="8" width="52.85546875" style="16" customWidth="1"/>
     <col min="9" max="9" width="79" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-    </row>
-    <row r="3" spans="1:22" s="16" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-    </row>
-    <row r="4" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="21">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+    </row>
+    <row r="3" spans="1:22" s="14" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8">
+        <v>40</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>104</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" s="8">
-        <v>40</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>191</v>
+        <v>4</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="C9" s="8">
-        <v>4</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>121</v>
-      </c>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="14"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+    <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B14" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="25" t="s">
+      <c r="C14" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E14" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F14" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G14" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H14" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I14" s="37" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="27" t="s">
+    <row r="15" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C15" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" s="27" t="s">
+      <c r="D16" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="H16" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="I16" s="27" t="s">
+      <c r="H16" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16" s="38" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="38" t="s">
+      <c r="A17" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="38" t="s">
+      <c r="G17" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="33">
         <v>56</v>
       </c>
-      <c r="I17" s="38" t="s">
+      <c r="I17" s="33" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="38" t="s">
+      <c r="A18" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="33">
         <v>102</v>
       </c>
-      <c r="I18" s="38" t="s">
+      <c r="I18" s="33" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="38" t="s">
+      <c r="A19" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19" s="33">
         <v>19</v>
       </c>
-      <c r="I19" s="38" t="s">
+      <c r="I19" s="33" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="38" t="s">
+      <c r="A20" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="38" t="s">
+      <c r="G20" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20" s="33">
         <v>137</v>
       </c>
-      <c r="I20" s="38" t="s">
+      <c r="I20" s="33" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="39" t="s">
+      <c r="A21" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="H21" s="39">
+      <c r="H21" s="34">
         <v>46</v>
       </c>
-      <c r="I21" s="39" t="s">
+      <c r="I21" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="39" t="s">
+      <c r="A22" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="H22" s="39">
+      <c r="H22" s="34">
         <v>46</v>
       </c>
-      <c r="I22" s="39" t="s">
+      <c r="I22" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="39" t="s">
+      <c r="A23" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="H23" s="39">
+      <c r="H23" s="34">
         <v>32</v>
       </c>
-      <c r="I23" s="39" t="s">
+      <c r="I23" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="39" t="s">
+      <c r="A24" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="39" t="s">
+      <c r="F24" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G24" s="39" t="s">
+      <c r="G24" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="H24" s="39">
+      <c r="H24" s="34">
         <v>32</v>
       </c>
-      <c r="I24" s="39" t="s">
+      <c r="I24" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="39" t="s">
+      <c r="A25" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="39" t="s">
+      <c r="F25" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="H25" s="39">
+      <c r="H25" s="34">
         <v>32</v>
       </c>
-      <c r="I25" s="39" t="s">
+      <c r="I25" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="39" t="s">
+      <c r="A26" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="39" t="s">
+      <c r="F26" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G26" s="39" t="s">
+      <c r="G26" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="H26" s="39">
+      <c r="H26" s="34">
         <v>22</v>
       </c>
-      <c r="I26" s="39" t="s">
+      <c r="I26" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="39" t="s">
+      <c r="A27" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="39" t="s">
+      <c r="F27" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G27" s="39" t="s">
+      <c r="G27" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="H27" s="39">
+      <c r="H27" s="34">
         <v>38</v>
       </c>
-      <c r="I27" s="39" t="s">
+      <c r="I27" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="39" t="s">
+      <c r="A28" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="E28" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F28" s="39" t="s">
+      <c r="F28" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G28" s="39" t="s">
+      <c r="G28" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="H28" s="39">
+      <c r="H28" s="34">
         <v>24</v>
       </c>
-      <c r="I28" s="39" t="s">
+      <c r="I28" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="39" t="s">
+      <c r="A29" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="39" t="s">
+      <c r="F29" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G29" s="39" t="s">
+      <c r="G29" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="H29" s="39">
+      <c r="H29" s="34">
         <v>38</v>
       </c>
-      <c r="I29" s="39" t="s">
+      <c r="I29" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="39" t="s">
+      <c r="A30" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="E30" s="39" t="s">
+      <c r="E30" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="39" t="s">
+      <c r="F30" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G30" s="39" t="s">
+      <c r="G30" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="H30" s="39">
+      <c r="H30" s="34">
         <v>68</v>
       </c>
-      <c r="I30" s="39" t="s">
+      <c r="I30" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="39" t="s">
+      <c r="A31" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="E31" s="39" t="s">
+      <c r="E31" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F31" s="39" t="s">
+      <c r="F31" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G31" s="39" t="s">
+      <c r="G31" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="H31" s="39">
-        <v>20</v>
-      </c>
-      <c r="I31" s="39" t="s">
+      <c r="H31" s="34">
+        <v>20</v>
+      </c>
+      <c r="I31" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="39" t="s">
+      <c r="A32" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="E32" s="39" t="s">
+      <c r="E32" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F32" s="39" t="s">
+      <c r="F32" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G32" s="39" t="s">
+      <c r="G32" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="H32" s="39">
+      <c r="H32" s="34">
         <v>28</v>
       </c>
-      <c r="I32" s="39" t="s">
+      <c r="I32" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="39" t="s">
+      <c r="A33" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="E33" s="39" t="s">
+      <c r="E33" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="39" t="s">
+      <c r="F33" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G33" s="39" t="s">
+      <c r="G33" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="H33" s="39">
+      <c r="H33" s="34">
         <v>102</v>
       </c>
-      <c r="I33" s="39" t="s">
+      <c r="I33" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="39" t="s">
+      <c r="A34" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="39" t="s">
+      <c r="F34" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G34" s="39" t="s">
+      <c r="G34" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="H34" s="39">
+      <c r="H34" s="34">
         <v>102</v>
       </c>
-      <c r="I34" s="39" t="s">
+      <c r="I34" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="39" t="s">
+      <c r="A35" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="E35" s="39" t="s">
+      <c r="E35" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F35" s="39" t="s">
+      <c r="F35" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G35" s="39" t="s">
+      <c r="G35" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="H35" s="39">
+      <c r="H35" s="34">
         <v>22</v>
       </c>
-      <c r="I35" s="39" t="s">
+      <c r="I35" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="39" t="s">
+      <c r="A36" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="39" t="s">
+      <c r="D36" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="E36" s="39" t="s">
+      <c r="E36" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F36" s="39" t="s">
+      <c r="F36" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G36" s="39" t="s">
+      <c r="G36" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="H36" s="39">
+      <c r="H36" s="34">
         <v>40</v>
       </c>
-      <c r="I36" s="39" t="s">
+      <c r="I36" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="39" t="s">
+      <c r="A37" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="E37" s="39" t="s">
+      <c r="E37" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F37" s="39" t="s">
+      <c r="F37" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G37" s="39" t="s">
+      <c r="G37" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="H37" s="39">
+      <c r="H37" s="34">
         <v>65</v>
       </c>
-      <c r="I37" s="39" t="s">
+      <c r="I37" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="39" t="s">
+      <c r="A38" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="39" t="s">
+      <c r="D38" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="E38" s="39" t="s">
+      <c r="E38" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F38" s="39" t="s">
+      <c r="F38" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G38" s="39" t="s">
+      <c r="G38" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="H38" s="39">
+      <c r="H38" s="34">
         <v>81</v>
       </c>
-      <c r="I38" s="39" t="s">
+      <c r="I38" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="39" t="s">
+      <c r="A39" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="39" t="s">
+      <c r="D39" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E39" s="39" t="s">
+      <c r="E39" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F39" s="39" t="s">
+      <c r="F39" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G39" s="39" t="s">
+      <c r="G39" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="H39" s="39">
+      <c r="H39" s="34">
         <v>22</v>
       </c>
-      <c r="I39" s="39" t="s">
+      <c r="I39" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="39" t="s">
+      <c r="A40" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="39" t="s">
+      <c r="C40" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="39" t="s">
+      <c r="D40" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="E40" s="39" t="s">
+      <c r="E40" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F40" s="39" t="s">
+      <c r="F40" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G40" s="39" t="s">
+      <c r="G40" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="H40" s="39">
+      <c r="H40" s="34">
         <v>36</v>
       </c>
-      <c r="I40" s="39" t="s">
+      <c r="I40" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="39" t="s">
+      <c r="A41" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="39" t="s">
+      <c r="D41" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="E41" s="39" t="s">
+      <c r="E41" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F41" s="39" t="s">
+      <c r="F41" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G41" s="39" t="s">
+      <c r="G41" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="H41" s="39">
+      <c r="H41" s="34">
         <v>51</v>
       </c>
-      <c r="I41" s="39" t="s">
+      <c r="I41" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="39" t="s">
+      <c r="A42" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="39" t="s">
+      <c r="C42" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="39" t="s">
+      <c r="D42" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="E42" s="39" t="s">
+      <c r="E42" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F42" s="39" t="s">
+      <c r="F42" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G42" s="39" t="s">
+      <c r="G42" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="H42" s="39">
+      <c r="H42" s="34">
         <v>67</v>
       </c>
-      <c r="I42" s="39" t="s">
+      <c r="I42" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="39" t="s">
+      <c r="A43" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="39" t="s">
+      <c r="C43" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="39" t="s">
+      <c r="D43" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="E43" s="39" t="s">
+      <c r="E43" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F43" s="39" t="s">
+      <c r="F43" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G43" s="39" t="s">
+      <c r="G43" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="H43" s="39">
+      <c r="H43" s="34">
         <v>26</v>
       </c>
-      <c r="I43" s="39" t="s">
+      <c r="I43" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="39" t="s">
+      <c r="A44" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="39" t="s">
+      <c r="C44" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="39" t="s">
+      <c r="D44" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="E44" s="39" t="s">
+      <c r="E44" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F44" s="39" t="s">
+      <c r="F44" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G44" s="39" t="s">
+      <c r="G44" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="H44" s="39">
+      <c r="H44" s="34">
         <v>42</v>
       </c>
-      <c r="I44" s="39" t="s">
+      <c r="I44" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="39" t="s">
+      <c r="A45" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="39" t="s">
+      <c r="C45" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D45" s="39" t="s">
+      <c r="D45" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="E45" s="39" t="s">
+      <c r="E45" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F45" s="39" t="s">
+      <c r="F45" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G45" s="39" t="s">
+      <c r="G45" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="H45" s="39">
+      <c r="H45" s="34">
         <v>73</v>
       </c>
-      <c r="I45" s="39" t="s">
+      <c r="I45" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="39" t="s">
+      <c r="A46" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="39" t="s">
+      <c r="C46" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="39" t="s">
+      <c r="D46" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="E46" s="39" t="s">
+      <c r="E46" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F46" s="39" t="s">
+      <c r="F46" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G46" s="39" t="s">
+      <c r="G46" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="H46" s="39">
+      <c r="H46" s="34">
         <v>114</v>
       </c>
-      <c r="I46" s="39" t="s">
+      <c r="I46" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="39" t="s">
+      <c r="A47" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="39" t="s">
+      <c r="C47" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="39" t="s">
+      <c r="D47" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="E47" s="39" t="s">
+      <c r="E47" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F47" s="39" t="s">
+      <c r="F47" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G47" s="39" t="s">
+      <c r="G47" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="H47" s="39">
+      <c r="H47" s="34">
         <v>105</v>
       </c>
-      <c r="I47" s="39" t="s">
+      <c r="I47" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="39" t="s">
+      <c r="A48" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="39" t="s">
+      <c r="C48" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D48" s="39" t="s">
+      <c r="D48" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="E48" s="39" t="s">
+      <c r="E48" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F48" s="39" t="s">
+      <c r="F48" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G48" s="39" t="s">
+      <c r="G48" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="H48" s="39">
+      <c r="H48" s="34">
         <v>108</v>
       </c>
-      <c r="I48" s="39" t="s">
+      <c r="I48" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="39" t="s">
+      <c r="A49" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="39" t="s">
+      <c r="C49" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="D49" s="39" t="s">
+      <c r="D49" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="E49" s="39" t="s">
+      <c r="E49" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F49" s="39" t="s">
+      <c r="F49" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G49" s="39" t="s">
+      <c r="G49" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="H49" s="39">
+      <c r="H49" s="34">
         <v>90</v>
       </c>
-      <c r="I49" s="39" t="s">
+      <c r="I49" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="39" t="s">
+      <c r="A50" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="39" t="s">
+      <c r="D50" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="E50" s="39" t="s">
+      <c r="E50" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F50" s="39" t="s">
+      <c r="F50" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G50" s="39" t="s">
+      <c r="G50" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="H50" s="39">
+      <c r="H50" s="34">
         <v>163</v>
       </c>
-      <c r="I50" s="39" t="s">
+      <c r="I50" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="39" t="s">
+      <c r="A51" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="39" t="s">
+      <c r="C51" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D51" s="39" t="s">
+      <c r="D51" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="E51" s="39" t="s">
+      <c r="E51" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F51" s="39" t="s">
+      <c r="F51" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G51" s="39" t="s">
+      <c r="G51" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="H51" s="39">
+      <c r="H51" s="34">
         <v>174</v>
       </c>
-      <c r="I51" s="39" t="s">
+      <c r="I51" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="39" t="s">
+      <c r="A52" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="39" t="s">
+      <c r="C52" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D52" s="39" t="s">
+      <c r="D52" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="E52" s="39" t="s">
+      <c r="E52" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F52" s="39" t="s">
+      <c r="F52" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G52" s="39" t="s">
+      <c r="G52" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="H52" s="39">
+      <c r="H52" s="34">
         <v>102</v>
       </c>
-      <c r="I52" s="39" t="s">
+      <c r="I52" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="39" t="s">
+      <c r="A53" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="39" t="s">
+      <c r="C53" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D53" s="39" t="s">
+      <c r="D53" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E53" s="39" t="s">
+      <c r="E53" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F53" s="39" t="s">
+      <c r="F53" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G53" s="39" t="s">
+      <c r="G53" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="H53" s="39">
+      <c r="H53" s="34">
         <v>48</v>
       </c>
-      <c r="I53" s="39" t="s">
+      <c r="I53" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" s="39" t="s">
+      <c r="A54" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C54" s="39" t="s">
+      <c r="C54" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D54" s="39" t="s">
+      <c r="D54" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="E54" s="39" t="s">
+      <c r="E54" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F54" s="39" t="s">
+      <c r="F54" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G54" s="39" t="s">
+      <c r="G54" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="H54" s="39">
+      <c r="H54" s="34">
         <v>131</v>
       </c>
-      <c r="I54" s="39" t="s">
+      <c r="I54" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="39" t="s">
+      <c r="A55" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="39" t="s">
+      <c r="C55" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D55" s="39" t="s">
+      <c r="D55" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="E55" s="39" t="s">
+      <c r="E55" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F55" s="39" t="s">
+      <c r="F55" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G55" s="39" t="s">
+      <c r="G55" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="H55" s="39">
+      <c r="H55" s="34">
         <v>131</v>
       </c>
-      <c r="I55" s="39" t="s">
+      <c r="I55" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" s="39" t="s">
+      <c r="A56" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="39" t="s">
+      <c r="C56" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="39" t="s">
+      <c r="D56" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="E56" s="39" t="s">
+      <c r="E56" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F56" s="39" t="s">
+      <c r="F56" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G56" s="39" t="s">
+      <c r="G56" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="H56" s="39">
+      <c r="H56" s="34">
         <v>22</v>
       </c>
-      <c r="I56" s="39" t="s">
+      <c r="I56" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" s="39" t="s">
+      <c r="A57" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="39" t="s">
+      <c r="C57" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="39" t="s">
+      <c r="D57" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="E57" s="39" t="s">
+      <c r="E57" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F57" s="39" t="s">
+      <c r="F57" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G57" s="39" t="s">
+      <c r="G57" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="H57" s="39">
+      <c r="H57" s="34">
         <v>39</v>
       </c>
-      <c r="I57" s="39" t="s">
+      <c r="I57" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" s="39" t="s">
+      <c r="A58" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="39" t="s">
+      <c r="C58" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D58" s="39" t="s">
+      <c r="D58" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="E58" s="39" t="s">
+      <c r="E58" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F58" s="39" t="s">
+      <c r="F58" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G58" s="39" t="s">
+      <c r="G58" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="H58" s="39">
+      <c r="H58" s="34">
         <v>103</v>
       </c>
-      <c r="I58" s="39" t="s">
+      <c r="I58" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" s="39" t="s">
+      <c r="A59" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="39" t="s">
+      <c r="C59" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D59" s="39" t="s">
+      <c r="D59" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="E59" s="39" t="s">
+      <c r="E59" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F59" s="39" t="s">
+      <c r="F59" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G59" s="39" t="s">
+      <c r="G59" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="H59" s="39">
+      <c r="H59" s="34">
         <v>103</v>
       </c>
-      <c r="I59" s="39" t="s">
+      <c r="I59" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="39" t="s">
+      <c r="A60" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="39" t="s">
+      <c r="C60" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D60" s="39" t="s">
+      <c r="D60" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="E60" s="39" t="s">
+      <c r="E60" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F60" s="39" t="s">
+      <c r="F60" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G60" s="39" t="s">
+      <c r="G60" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="H60" s="39">
-        <v>21</v>
-      </c>
-      <c r="I60" s="39" t="s">
+      <c r="H60" s="34">
+        <v>21</v>
+      </c>
+      <c r="I60" s="34" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3102,114 +3110,114 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B67" s="29" t="s">
+      <c r="B67" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C67" s="30" t="s">
+      <c r="C67" s="25" t="s">
         <v>101</v>
       </c>
       <c r="E67" s="6"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B68" s="32" t="s">
+      <c r="B68" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C68" s="33">
+      <c r="C68" s="28">
         <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="32" t="s">
+      <c r="B69" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="33">
+      <c r="C69" s="28">
         <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C70" s="33">
+      <c r="C70" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B71" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C71" s="33">
+      <c r="B71" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" s="28">
         <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="31" t="s">
+      <c r="A72" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B72" s="32" t="s">
+      <c r="B72" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C72" s="33">
+      <c r="C72" s="28">
         <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="34" t="s">
+      <c r="A73" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="B73" s="35" t="s">
+      <c r="B73" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="C73" s="36">
+      <c r="C73" s="31">
         <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="22" t="s">
+      <c r="A79" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C79" s="22" t="s">
+      <c r="C79" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D79" s="22" t="s">
+      <c r="D79" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E79" s="22" t="s">
+      <c r="E79" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="F79" s="22" t="s">
+      <c r="F79" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="G79" s="22" t="s">
+      <c r="G79" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H79" s="22" t="s">
+      <c r="H79" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="I79" s="22" t="s">
+      <c r="I79" s="19" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3223,7 +3231,7 @@
       <c r="C80" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D80" s="14" t="s">
+      <c r="D80" s="12" t="s">
         <v>84</v>
       </c>
       <c r="E80" s="8" t="s">
@@ -3232,13 +3240,13 @@
       <c r="F80" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G80" s="14" t="s">
+      <c r="G80" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="H80" s="37">
+      <c r="H80" s="32">
         <v>39</v>
       </c>
-      <c r="I80" s="14" t="s">
+      <c r="I80" s="12" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3252,7 +3260,7 @@
       <c r="C81" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D81" s="14" t="s">
+      <c r="D81" s="12" t="s">
         <v>82</v>
       </c>
       <c r="E81" s="8" t="s">
@@ -3261,13 +3269,13 @@
       <c r="F81" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G81" s="14" t="s">
+      <c r="G81" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H81" s="37">
+      <c r="H81" s="32">
         <v>37</v>
       </c>
-      <c r="I81" s="14" t="s">
+      <c r="I81" s="12" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3281,7 +3289,7 @@
       <c r="C82" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D82" s="14" t="s">
+      <c r="D82" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E82" s="8" t="s">
@@ -3290,13 +3298,13 @@
       <c r="F82" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G82" s="14" t="s">
+      <c r="G82" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="H82" s="37">
+      <c r="H82" s="32">
         <v>42</v>
       </c>
-      <c r="I82" s="14" t="s">
+      <c r="I82" s="12" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3310,7 +3318,7 @@
       <c r="C83" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D83" s="14" t="s">
+      <c r="D83" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E83" s="8" t="s">
@@ -3319,13 +3327,13 @@
       <c r="F83" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G83" s="14" t="s">
+      <c r="G83" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H83" s="37">
+      <c r="H83" s="32">
         <v>14</v>
       </c>
-      <c r="I83" s="14" t="s">
+      <c r="I83" s="12" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3339,7 +3347,7 @@
       <c r="C84" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D84" s="14" t="s">
+      <c r="D84" s="12" t="s">
         <v>64</v>
       </c>
       <c r="E84" s="8" t="s">
@@ -3348,13 +3356,13 @@
       <c r="F84" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G84" s="14" t="s">
+      <c r="G84" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H84" s="37">
+      <c r="H84" s="32">
         <v>47</v>
       </c>
-      <c r="I84" s="14" t="s">
+      <c r="I84" s="12" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3368,7 +3376,7 @@
       <c r="C85" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D85" s="14" t="s">
+      <c r="D85" s="12" t="s">
         <v>63</v>
       </c>
       <c r="E85" s="8" t="s">
@@ -3377,13 +3385,13 @@
       <c r="F85" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G85" s="14" t="s">
+      <c r="G85" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H85" s="37">
+      <c r="H85" s="32">
         <v>55</v>
       </c>
-      <c r="I85" s="14" t="s">
+      <c r="I85" s="12" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3397,7 +3405,7 @@
       <c r="C86" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D86" s="14" t="s">
+      <c r="D86" s="12" t="s">
         <v>79</v>
       </c>
       <c r="E86" s="8" t="s">
@@ -3406,158 +3414,158 @@
       <c r="F86" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G86" s="14" t="s">
+      <c r="G86" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="H86" s="37">
+      <c r="H86" s="32">
         <v>36</v>
       </c>
-      <c r="I86" s="14" t="s">
+      <c r="I86" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" s="37" t="s">
+      <c r="A87" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C87" s="37" t="s">
+      <c r="C87" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D87" s="37" t="s">
+      <c r="D87" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="E87" s="37" t="s">
+      <c r="E87" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="F87" s="37" t="s">
+      <c r="F87" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="G87" s="37" t="s">
+      <c r="G87" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="H87" s="37">
+      <c r="H87" s="32">
         <v>153</v>
       </c>
-      <c r="I87" s="37" t="s">
+      <c r="I87" s="32" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B88" s="37" t="s">
+      <c r="A88" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C88" s="37" t="s">
+      <c r="C88" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D88" s="37" t="s">
+      <c r="D88" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="E88" s="37" t="s">
+      <c r="E88" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="F88" s="37" t="s">
+      <c r="F88" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="G88" s="37" t="s">
+      <c r="G88" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="H88" s="37">
+      <c r="H88" s="32">
         <v>107</v>
       </c>
-      <c r="I88" s="37" t="s">
+      <c r="I88" s="32" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B89" s="37" t="s">
+      <c r="A89" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="37" t="s">
+      <c r="C89" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D89" s="37" t="s">
+      <c r="D89" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="E89" s="37" t="s">
+      <c r="E89" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="F89" s="37" t="s">
+      <c r="F89" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="G89" s="37" t="s">
+      <c r="G89" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="H89" s="37">
+      <c r="H89" s="32">
         <v>107</v>
       </c>
-      <c r="I89" s="37" t="s">
+      <c r="I89" s="32" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B90" s="37" t="s">
+      <c r="A90" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C90" s="37" t="s">
+      <c r="C90" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="37" t="s">
+      <c r="D90" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="E90" s="37" t="s">
+      <c r="E90" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="F90" s="37" t="s">
+      <c r="F90" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="G90" s="37" t="s">
+      <c r="G90" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="H90" s="37">
+      <c r="H90" s="32">
         <v>116</v>
       </c>
-      <c r="I90" s="37" t="s">
+      <c r="I90" s="32" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" s="37" t="s">
+      <c r="A91" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C91" s="37" t="s">
+      <c r="C91" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D91" s="37" t="s">
+      <c r="D91" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="E91" s="37" t="s">
+      <c r="E91" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="F91" s="37" t="s">
+      <c r="F91" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="G91" s="37" t="s">
+      <c r="G91" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="H91" s="37">
+      <c r="H91" s="32">
         <v>116</v>
       </c>
-      <c r="I91" s="37" t="s">
+      <c r="I91" s="32" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3571,7 +3579,7 @@
       <c r="C92" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D92" s="14" t="s">
+      <c r="D92" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E92" s="8" t="s">
@@ -3580,13 +3588,13 @@
       <c r="F92" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G92" s="14" t="s">
+      <c r="G92" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H92" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I92" s="14" t="s">
+      <c r="H92" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I92" s="12" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3600,7 +3608,7 @@
       <c r="C93" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D93" s="14" t="s">
+      <c r="D93" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E93" s="8" t="s">
@@ -3609,13 +3617,13 @@
       <c r="F93" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G93" s="14" t="s">
+      <c r="G93" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H93" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I93" s="14" t="s">
+      <c r="H93" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I93" s="12" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3629,7 +3637,7 @@
       <c r="C94" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D94" s="14" t="s">
+      <c r="D94" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E94" s="8" t="s">
@@ -3638,13 +3646,13 @@
       <c r="F94" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G94" s="14" t="s">
+      <c r="G94" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H94" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I94" s="14" t="s">
+      <c r="H94" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I94" s="12" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3658,7 +3666,7 @@
       <c r="C95" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D95" s="14" t="s">
+      <c r="D95" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E95" s="8" t="s">
@@ -3667,13 +3675,13 @@
       <c r="F95" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G95" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H95" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I95" s="14" t="s">
+      <c r="G95" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I95" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3687,7 +3695,7 @@
       <c r="C96" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D96" s="14" t="s">
+      <c r="D96" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E96" s="8" t="s">
@@ -3696,13 +3704,13 @@
       <c r="F96" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G96" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H96" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I96" s="14" t="s">
+      <c r="G96" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I96" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3716,7 +3724,7 @@
       <c r="C97" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="D97" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E97" s="8" t="s">
@@ -3725,13 +3733,13 @@
       <c r="F97" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G97" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H97" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I97" s="14" t="s">
+      <c r="G97" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H97" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I97" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3745,7 +3753,7 @@
       <c r="C98" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D98" s="14" t="s">
+      <c r="D98" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E98" s="8" t="s">
@@ -3754,13 +3762,13 @@
       <c r="F98" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G98" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H98" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I98" s="14" t="s">
+      <c r="G98" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I98" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3774,7 +3782,7 @@
       <c r="C99" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D99" s="14" t="s">
+      <c r="D99" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E99" s="8" t="s">
@@ -3783,13 +3791,13 @@
       <c r="F99" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G99" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H99" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I99" s="14" t="s">
+      <c r="G99" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H99" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I99" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3803,7 +3811,7 @@
       <c r="C100" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D100" s="14" t="s">
+      <c r="D100" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E100" s="8" t="s">
@@ -3812,13 +3820,13 @@
       <c r="F100" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G100" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H100" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I100" s="14" t="s">
+      <c r="G100" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H100" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I100" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3832,7 +3840,7 @@
       <c r="C101" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D101" s="14" t="s">
+      <c r="D101" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E101" s="8" t="s">
@@ -3841,13 +3849,13 @@
       <c r="F101" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G101" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H101" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I101" s="14" t="s">
+      <c r="G101" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H101" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I101" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3861,7 +3869,7 @@
       <c r="C102" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D102" s="14" t="s">
+      <c r="D102" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E102" s="8" t="s">
@@ -3870,13 +3878,13 @@
       <c r="F102" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G102" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H102" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I102" s="14" t="s">
+      <c r="G102" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H102" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I102" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3890,7 +3898,7 @@
       <c r="C103" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D103" s="14" t="s">
+      <c r="D103" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E103" s="8" t="s">
@@ -3899,13 +3907,13 @@
       <c r="F103" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G103" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H103" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I103" s="14" t="s">
+      <c r="G103" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H103" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I103" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3919,7 +3927,7 @@
       <c r="C104" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D104" s="14" t="s">
+      <c r="D104" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E104" s="8" t="s">
@@ -3928,13 +3936,13 @@
       <c r="F104" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G104" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H104" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I104" s="14" t="s">
+      <c r="G104" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I104" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3948,7 +3956,7 @@
       <c r="C105" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D105" s="14" t="s">
+      <c r="D105" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E105" s="8" t="s">
@@ -3957,13 +3965,13 @@
       <c r="F105" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G105" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H105" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I105" s="14" t="s">
+      <c r="G105" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H105" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I105" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3977,7 +3985,7 @@
       <c r="C106" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D106" s="14" t="s">
+      <c r="D106" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E106" s="8" t="s">
@@ -3986,13 +3994,13 @@
       <c r="F106" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G106" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H106" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I106" s="14" t="s">
+      <c r="G106" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H106" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I106" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4006,7 +4014,7 @@
       <c r="C107" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D107" s="14" t="s">
+      <c r="D107" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E107" s="8" t="s">
@@ -4015,13 +4023,13 @@
       <c r="F107" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G107" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H107" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I107" s="14" t="s">
+      <c r="G107" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I107" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4035,7 +4043,7 @@
       <c r="C108" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D108" s="14" t="s">
+      <c r="D108" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E108" s="8" t="s">
@@ -4044,13 +4052,13 @@
       <c r="F108" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G108" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H108" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I108" s="14" t="s">
+      <c r="G108" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H108" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I108" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4064,7 +4072,7 @@
       <c r="C109" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D109" s="14" t="s">
+      <c r="D109" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E109" s="8" t="s">
@@ -4073,13 +4081,13 @@
       <c r="F109" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G109" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H109" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I109" s="14" t="s">
+      <c r="G109" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H109" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I109" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4093,7 +4101,7 @@
       <c r="C110" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D110" s="14" t="s">
+      <c r="D110" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E110" s="8" t="s">
@@ -4102,13 +4110,13 @@
       <c r="F110" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G110" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H110" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I110" s="14" t="s">
+      <c r="G110" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H110" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I110" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4122,7 +4130,7 @@
       <c r="C111" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D111" s="14" t="s">
+      <c r="D111" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E111" s="8" t="s">
@@ -4131,13 +4139,13 @@
       <c r="F111" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G111" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H111" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I111" s="14" t="s">
+      <c r="G111" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I111" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4151,7 +4159,7 @@
       <c r="C112" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D112" s="14" t="s">
+      <c r="D112" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E112" s="8" t="s">
@@ -4160,13 +4168,13 @@
       <c r="F112" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G112" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H112" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I112" s="14" t="s">
+      <c r="G112" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H112" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I112" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4180,7 +4188,7 @@
       <c r="C113" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D113" s="14" t="s">
+      <c r="D113" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E113" s="8" t="s">
@@ -4189,13 +4197,13 @@
       <c r="F113" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G113" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H113" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I113" s="14" t="s">
+      <c r="G113" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H113" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I113" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4209,7 +4217,7 @@
       <c r="C114" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D114" s="14" t="s">
+      <c r="D114" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E114" s="8" t="s">
@@ -4218,13 +4226,13 @@
       <c r="F114" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G114" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H114" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I114" s="14" t="s">
+      <c r="G114" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H114" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I114" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4238,7 +4246,7 @@
       <c r="C115" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D115" s="14" t="s">
+      <c r="D115" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E115" s="8" t="s">
@@ -4247,13 +4255,13 @@
       <c r="F115" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G115" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H115" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I115" s="14" t="s">
+      <c r="G115" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H115" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I115" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4267,7 +4275,7 @@
       <c r="C116" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D116" s="14" t="s">
+      <c r="D116" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E116" s="8" t="s">
@@ -4276,13 +4284,13 @@
       <c r="F116" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G116" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H116" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I116" s="14" t="s">
+      <c r="G116" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H116" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I116" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4296,7 +4304,7 @@
       <c r="C117" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D117" s="14" t="s">
+      <c r="D117" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E117" s="8" t="s">
@@ -4305,13 +4313,13 @@
       <c r="F117" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G117" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H117" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I117" s="14" t="s">
+      <c r="G117" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H117" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I117" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4325,7 +4333,7 @@
       <c r="C118" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D118" s="14" t="s">
+      <c r="D118" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E118" s="8" t="s">
@@ -4334,13 +4342,13 @@
       <c r="F118" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G118" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H118" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I118" s="14" t="s">
+      <c r="G118" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H118" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I118" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4354,7 +4362,7 @@
       <c r="C119" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D119" s="14" t="s">
+      <c r="D119" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E119" s="8" t="s">
@@ -4363,13 +4371,13 @@
       <c r="F119" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G119" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H119" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I119" s="14" t="s">
+      <c r="G119" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H119" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I119" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4383,7 +4391,7 @@
       <c r="C120" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D120" s="14" t="s">
+      <c r="D120" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E120" s="8" t="s">
@@ -4392,13 +4400,13 @@
       <c r="F120" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G120" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H120" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I120" s="14" t="s">
+      <c r="G120" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H120" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I120" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4412,7 +4420,7 @@
       <c r="C121" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D121" s="14" t="s">
+      <c r="D121" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E121" s="8" t="s">
@@ -4421,13 +4429,13 @@
       <c r="F121" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G121" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H121" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I121" s="14" t="s">
+      <c r="G121" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H121" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I121" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4441,7 +4449,7 @@
       <c r="C122" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D122" s="14" t="s">
+      <c r="D122" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E122" s="8" t="s">
@@ -4450,13 +4458,13 @@
       <c r="F122" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G122" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H122" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I122" s="14" t="s">
+      <c r="G122" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H122" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I122" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4470,7 +4478,7 @@
       <c r="C123" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D123" s="14" t="s">
+      <c r="D123" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E123" s="8" t="s">
@@ -4479,13 +4487,13 @@
       <c r="F123" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G123" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H123" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I123" s="14" t="s">
+      <c r="G123" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H123" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I123" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4499,7 +4507,7 @@
       <c r="C124" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D124" s="14" t="s">
+      <c r="D124" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E124" s="8" t="s">
@@ -4508,13 +4516,13 @@
       <c r="F124" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G124" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H124" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I124" s="14" t="s">
+      <c r="G124" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H124" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I124" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4528,7 +4536,7 @@
       <c r="C125" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D125" s="14" t="s">
+      <c r="D125" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E125" s="8" t="s">
@@ -4537,13 +4545,13 @@
       <c r="F125" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G125" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H125" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I125" s="14" t="s">
+      <c r="G125" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H125" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I125" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4557,7 +4565,7 @@
       <c r="C126" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D126" s="14" t="s">
+      <c r="D126" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E126" s="8" t="s">
@@ -4566,13 +4574,13 @@
       <c r="F126" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G126" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H126" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I126" s="14" t="s">
+      <c r="G126" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H126" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I126" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4586,7 +4594,7 @@
       <c r="C127" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D127" s="14" t="s">
+      <c r="D127" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E127" s="8" t="s">
@@ -4595,13 +4603,13 @@
       <c r="F127" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G127" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H127" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I127" s="14" t="s">
+      <c r="G127" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H127" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I127" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4615,7 +4623,7 @@
       <c r="C128" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D128" s="14" t="s">
+      <c r="D128" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E128" s="8" t="s">
@@ -4624,13 +4632,13 @@
       <c r="F128" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G128" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H128" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I128" s="14" t="s">
+      <c r="G128" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H128" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I128" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4644,7 +4652,7 @@
       <c r="C129" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D129" s="14" t="s">
+      <c r="D129" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E129" s="8" t="s">
@@ -4653,13 +4661,13 @@
       <c r="F129" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G129" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H129" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I129" s="14" t="s">
+      <c r="G129" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H129" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I129" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4673,7 +4681,7 @@
       <c r="C130" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D130" s="14" t="s">
+      <c r="D130" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E130" s="8" t="s">
@@ -4682,13 +4690,13 @@
       <c r="F130" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G130" s="14" t="s">
+      <c r="G130" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H130" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I130" s="14" t="s">
+      <c r="H130" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I130" s="12" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4702,7 +4710,7 @@
       <c r="C131" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D131" s="14" t="s">
+      <c r="D131" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E131" s="8" t="s">
@@ -4711,13 +4719,13 @@
       <c r="F131" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G131" s="14" t="s">
+      <c r="G131" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H131" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I131" s="14" t="s">
+      <c r="H131" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I131" s="12" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4731,7 +4739,7 @@
       <c r="C132" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D132" s="14" t="s">
+      <c r="D132" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E132" s="8" t="s">
@@ -4740,13 +4748,13 @@
       <c r="F132" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G132" s="14" t="s">
+      <c r="G132" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H132" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I132" s="14" t="s">
+      <c r="H132" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I132" s="12" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4760,7 +4768,7 @@
       <c r="C133" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D133" s="14" t="s">
+      <c r="D133" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E133" s="8" t="s">
@@ -4769,13 +4777,13 @@
       <c r="F133" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G133" s="14" t="s">
+      <c r="G133" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H133" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I133" s="14" t="s">
+      <c r="H133" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I133" s="12" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4787,7 +4795,7 @@
         <v>42</v>
       </c>
       <c r="C134" s="8"/>
-      <c r="D134" s="14" t="s">
+      <c r="D134" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E134" s="8" t="s">
@@ -4796,13 +4804,13 @@
       <c r="F134" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G134" s="14" t="s">
+      <c r="G134" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="H134" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I134" s="14" t="s">
+      <c r="H134" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I134" s="12" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4814,7 +4822,7 @@
         <v>38</v>
       </c>
       <c r="C135" s="8"/>
-      <c r="D135" s="14" t="s">
+      <c r="D135" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E135" s="8" t="s">
@@ -4823,13 +4831,13 @@
       <c r="F135" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G135" s="14" t="s">
+      <c r="G135" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="H135" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I135" s="14" t="s">
+      <c r="H135" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I135" s="12" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4841,7 +4849,7 @@
         <v>23</v>
       </c>
       <c r="C136" s="8"/>
-      <c r="D136" s="14" t="s">
+      <c r="D136" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E136" s="8" t="s">
@@ -4850,13 +4858,13 @@
       <c r="F136" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G136" s="14" t="s">
+      <c r="G136" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="H136" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I136" s="14" t="s">
+      <c r="H136" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I136" s="12" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4888,7 +4896,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4898,7 +4906,7 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>89</v>
       </c>
     </row>

--- a/Documentation/Group_16_Smells_Analysis.xlsx
+++ b/Documentation/Group_16_Smells_Analysis.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\welcome\Desktop\Dal Coursework\Winter_2022\CSCI 5308\SPRING PROJECT\group16\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE0E5D8-9F10-47AC-B119-301E67860CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94CF351-602A-4029-A798-EE1D913D3810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D627CF3C-7D3F-443A-A2B4-3623376BAF05}"/>
   </bookViews>
   <sheets>
     <sheet name="Smells_Summary" sheetId="4" r:id="rId1"/>
-    <sheet name="Smells_to_do" sheetId="3" state="hidden" r:id="rId2"/>
-    <sheet name="Smells_Essential" sheetId="2" state="hidden" r:id="rId3"/>
-    <sheet name="Smells_Refactoring" sheetId="1" state="hidden" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="Smells_to_do" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Smells_Essential" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="Smells_Refactoring" sheetId="1" state="hidden" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="199">
   <si>
     <t>Extracted Complex Conditional statements into smaller conditional statements</t>
   </si>
@@ -399,9 +403,6 @@
     <t>The tool detected the smell in this class because it contains only data members without any method implementation. Following fields are declared in this class: NO_USER_FOUND; INCORRECT_AUTH; SUCCESS; USER_REGISTERED_SUCCESSFULLY; LOGIN_SUCCESSFUL_FOR_USER; AUTH_SUCCESSFUL; USER_ALREADY_EXIST; RIDE_CREATED_SUCCESSFULLY; RIDE_BOOKED_SUCCESSFULLY; RIDE_CREATED; RIDE_BOOKED; PLEASE_BUY_CREDITS</t>
   </si>
   <si>
-    <t>Extracted the original Constants class into 3 smaller classes, namely: ControllerStringMessages, DAOStringMessages, ServiceStringMessages</t>
-  </si>
-  <si>
     <t>Extract Class</t>
   </si>
   <si>
@@ -622,6 +623,21 @@
   </si>
   <si>
     <t>Class Name</t>
+  </si>
+  <si>
+    <t>Extracted the original String Messages class into 3 smaller classes, namely: ControllerStringMessages, DAOStringMessages, ServiceStringMessages</t>
+  </si>
+  <si>
+    <t>Extracted the original Constants class into 3 smaller classes, namely: ServiceConstants, ControllerConstants and DAOConstants</t>
+  </si>
+  <si>
+    <t>The tool detected the smell in this component because the component realizes more than one architectural concern/feature. Independent sets of related classes within this component are: [CustomerController]; [RegistrationController]; [VehicleController]; [VehicleOwnerController]; [CustomerControllerTest]; [TestController]. LCC (Lack of Component Cohesion) = 1.0</t>
+  </si>
+  <si>
+    <t>ChartData</t>
+  </si>
+  <si>
+    <t>Credits</t>
   </si>
 </sst>
 </file>
@@ -709,7 +725,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -758,8 +774,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -906,11 +928,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1014,11 +1045,93 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1138,52 +1251,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1247,42 +1314,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6755CAD-1576-4BF9-8B4E-8A09EEBE71AC}" name="Table3" displayName="Table3" ref="A6:D9" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6755CAD-1576-4BF9-8B4E-8A09EEBE71AC}" name="Table3" displayName="Table3" ref="A6:D9" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" tableBorderDxfId="26">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{18215B9E-CD39-4D04-9394-8366DDD80E4D}" name="Smell Category" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{E14D365A-86FE-4D64-9E21-D32E8C8D080D}" name="Smell" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{7EDFA3B1-AA0B-4E49-A1D0-5BADB472BF98}" name="Number of Instance" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{85B1FAC0-E6FF-44DB-9A7E-888BA29C291A}" name="Refactoring Technique" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{18215B9E-CD39-4D04-9394-8366DDD80E4D}" name="Smell Category" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{E14D365A-86FE-4D64-9E21-D32E8C8D080D}" name="Smell" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{7EDFA3B1-AA0B-4E49-A1D0-5BADB472BF98}" name="Number of Instance" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{85B1FAC0-E6FF-44DB-9A7E-888BA29C291A}" name="Refactoring Technique" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DABE145-BB2A-4147-9A91-99AD482CB27E}" name="Table4" displayName="Table4" ref="A79:I136" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A79:I136" xr:uid="{FA753889-D6C2-4B6E-B939-3B4CF45F50C5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DABE145-BB2A-4147-9A91-99AD482CB27E}" name="Table4" displayName="Table4" ref="A79:I137" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A79:I137" xr:uid="{FA753889-D6C2-4B6E-B939-3B4CF45F50C5}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Unutilized Abstraction"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{EEC9EF43-1960-4FC8-8DF8-A2BF34648030}" name="Project Name" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{E3CAD0FD-0379-40EC-A5DE-D24359153BE0}" name="Package Name" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{3E518F39-6405-4C91-AC8E-EE83D30A58B4}" name="Type Name" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{8832A258-A6CC-4663-945E-49DC7221E9C6}" name="Method Name" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{0D5D2383-745E-410D-959C-3DF3415CAF72}" name="Smell Category" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{FCD38D56-DC6B-496B-87C4-0F73EC41C4C7}" name="Smell" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{099BB656-A7B8-4AD2-8B10-06B1560BE33B}" name="Cause of the Smell" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{F96A0E56-7CEF-4195-B8A0-C7C9913665DA}" name="Method start line no" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{912615F5-A0B3-4462-ACD4-152F19D85D11}" name="Rationale for Acceptance of Smell" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{EEC9EF43-1960-4FC8-8DF8-A2BF34648030}" name="Project Name" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{E3CAD0FD-0379-40EC-A5DE-D24359153BE0}" name="Package Name" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{3E518F39-6405-4C91-AC8E-EE83D30A58B4}" name="Type Name" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{8832A258-A6CC-4663-945E-49DC7221E9C6}" name="Method Name" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{0D5D2383-745E-410D-959C-3DF3415CAF72}" name="Smell Category" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{FCD38D56-DC6B-496B-87C4-0F73EC41C4C7}" name="Smell" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{099BB656-A7B8-4AD2-8B10-06B1560BE33B}" name="Cause of the Smell" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{F96A0E56-7CEF-4195-B8A0-C7C9913665DA}" name="Method start line no" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{912615F5-A0B3-4462-ACD4-152F19D85D11}" name="Rationale for Acceptance of Smell" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B629A12F-C0D4-43EF-A22C-B072EC2F8523}" name="Table7" displayName="Table7" ref="A67:C73" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B629A12F-C0D4-43EF-A22C-B072EC2F8523}" name="Table7" displayName="Table7" ref="A67:C73" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="A67:C73" xr:uid="{2F024144-6B6A-47BF-8430-58FF90DC055A}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AC3BDCB6-2DFF-4C30-A232-E21084877D36}" name="Smell Category" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{4C2D4644-2F34-418B-8DD7-DE14E9CE2302}" name="Smell" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{030A6088-C8EF-4BB1-B42F-D8D98DCCE0B5}" name="Number of Instance" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{AC3BDCB6-2DFF-4C30-A232-E21084877D36}" name="Smell Category" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{4C2D4644-2F34-418B-8DD7-DE14E9CE2302}" name="Smell" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{030A6088-C8EF-4BB1-B42F-D8D98DCCE0B5}" name="Number of Instance" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1585,10 +1658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0F6571-8A5E-45E9-AF4A-EB658A1F67A9}">
-  <dimension ref="A2:V136"/>
+  <dimension ref="A2:V139"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1606,7 +1679,7 @@
   <sheetData>
     <row r="2" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -1687,7 +1760,7 @@
         <v>40</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E7" s="8"/>
     </row>
@@ -1717,7 +1790,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E9" s="8"/>
     </row>
@@ -1749,7 +1822,7 @@
         <v>18</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>87</v>
@@ -1781,7 +1854,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>16</v>
@@ -1790,13 +1863,13 @@
         <v>118</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>120</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:22" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1810,7 +1883,7 @@
         <v>117</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>16</v>
@@ -1822,10 +1895,10 @@
         <v>119</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1839,7 +1912,7 @@
         <v>48</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E17" s="33" t="s">
         <v>86</v>
@@ -1848,13 +1921,13 @@
         <v>1</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H17" s="33">
         <v>56</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1868,7 +1941,7 @@
         <v>48</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E18" s="33" t="s">
         <v>86</v>
@@ -1877,13 +1950,13 @@
         <v>1</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H18" s="33">
         <v>102</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1897,7 +1970,7 @@
         <v>29</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E19" s="33" t="s">
         <v>86</v>
@@ -1906,13 +1979,13 @@
         <v>1</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H19" s="33">
         <v>19</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1935,13 +2008,13 @@
         <v>1</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H20" s="33">
         <v>137</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1955,22 +2028,22 @@
         <v>59</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E21" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F21" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" s="34" t="s">
         <v>130</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>131</v>
       </c>
       <c r="H21" s="34">
         <v>46</v>
       </c>
       <c r="I21" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1984,22 +2057,22 @@
         <v>59</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E22" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H22" s="34">
         <v>46</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2013,22 +2086,22 @@
         <v>56</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E23" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G23" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H23" s="34">
         <v>32</v>
       </c>
       <c r="I23" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2042,22 +2115,22 @@
         <v>56</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E24" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F24" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" s="34" t="s">
         <v>130</v>
-      </c>
-      <c r="G24" s="34" t="s">
-        <v>131</v>
       </c>
       <c r="H24" s="34">
         <v>32</v>
       </c>
       <c r="I24" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2071,22 +2144,22 @@
         <v>56</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E25" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H25" s="34">
         <v>32</v>
       </c>
       <c r="I25" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2100,22 +2173,22 @@
         <v>54</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E26" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H26" s="34">
         <v>22</v>
       </c>
       <c r="I26" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2129,22 +2202,22 @@
         <v>54</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E27" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H27" s="34">
         <v>38</v>
       </c>
       <c r="I27" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2158,22 +2231,22 @@
         <v>52</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E28" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H28" s="34">
         <v>24</v>
       </c>
       <c r="I28" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2187,22 +2260,22 @@
         <v>52</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E29" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H29" s="34">
         <v>38</v>
       </c>
       <c r="I29" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2216,22 +2289,22 @@
         <v>52</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E30" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H30" s="34">
         <v>68</v>
       </c>
       <c r="I30" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2245,22 +2318,22 @@
         <v>50</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E31" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H31" s="34">
         <v>20</v>
       </c>
       <c r="I31" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2274,22 +2347,22 @@
         <v>48</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E32" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H32" s="34">
         <v>28</v>
       </c>
       <c r="I32" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2303,22 +2376,22 @@
         <v>48</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E33" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F33" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H33" s="34">
         <v>102</v>
       </c>
       <c r="I33" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2332,22 +2405,22 @@
         <v>48</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E34" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G34" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H34" s="34">
         <v>102</v>
       </c>
       <c r="I34" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2361,22 +2434,22 @@
         <v>46</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E35" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G35" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H35" s="34">
         <v>22</v>
       </c>
       <c r="I35" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2390,22 +2463,22 @@
         <v>46</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E36" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H36" s="34">
         <v>40</v>
       </c>
       <c r="I36" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2419,22 +2492,22 @@
         <v>46</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E37" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F37" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H37" s="34">
         <v>65</v>
       </c>
       <c r="I37" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2448,22 +2521,22 @@
         <v>46</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E38" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H38" s="34">
         <v>81</v>
       </c>
       <c r="I38" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2477,22 +2550,22 @@
         <v>44</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E39" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F39" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H39" s="34">
         <v>22</v>
       </c>
       <c r="I39" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2506,22 +2579,22 @@
         <v>44</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E40" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F40" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H40" s="34">
         <v>36</v>
       </c>
       <c r="I40" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2535,22 +2608,22 @@
         <v>44</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E41" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G41" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H41" s="34">
         <v>51</v>
       </c>
       <c r="I41" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2564,22 +2637,22 @@
         <v>44</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E42" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F42" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H42" s="34">
         <v>67</v>
       </c>
       <c r="I42" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2593,22 +2666,22 @@
         <v>41</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E43" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F43" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G43" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H43" s="34">
         <v>26</v>
       </c>
       <c r="I43" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2622,22 +2695,22 @@
         <v>41</v>
       </c>
       <c r="D44" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E44" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F44" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H44" s="34">
         <v>42</v>
       </c>
       <c r="I44" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2651,22 +2724,22 @@
         <v>41</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E45" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F45" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G45" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H45" s="34">
         <v>73</v>
       </c>
       <c r="I45" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2680,22 +2753,22 @@
         <v>84</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E46" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F46" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G46" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H46" s="34">
         <v>114</v>
       </c>
       <c r="I46" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2709,22 +2782,22 @@
         <v>82</v>
       </c>
       <c r="D47" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E47" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F47" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H47" s="34">
         <v>105</v>
       </c>
       <c r="I47" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2738,22 +2811,22 @@
         <v>40</v>
       </c>
       <c r="D48" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E48" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F48" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G48" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H48" s="34">
         <v>108</v>
       </c>
       <c r="I48" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2764,25 +2837,25 @@
         <v>38</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D49" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E49" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F49" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G49" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H49" s="34">
         <v>90</v>
       </c>
       <c r="I49" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2796,22 +2869,22 @@
         <v>64</v>
       </c>
       <c r="D50" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E50" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F50" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G50" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H50" s="34">
         <v>163</v>
       </c>
       <c r="I50" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2825,22 +2898,22 @@
         <v>63</v>
       </c>
       <c r="D51" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E51" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F51" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G51" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H51" s="34">
         <v>174</v>
       </c>
       <c r="I51" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2854,22 +2927,22 @@
         <v>79</v>
       </c>
       <c r="D52" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E52" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F52" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G52" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H52" s="34">
         <v>102</v>
       </c>
       <c r="I52" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2883,22 +2956,22 @@
         <v>35</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E53" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F53" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G53" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H53" s="34">
         <v>48</v>
       </c>
       <c r="I53" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2912,22 +2985,22 @@
         <v>35</v>
       </c>
       <c r="D54" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E54" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F54" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G54" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H54" s="34">
         <v>131</v>
       </c>
       <c r="I54" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2941,22 +3014,22 @@
         <v>35</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E55" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F55" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G55" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H55" s="34">
         <v>131</v>
       </c>
       <c r="I55" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2970,22 +3043,22 @@
         <v>33</v>
       </c>
       <c r="D56" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E56" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F56" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G56" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H56" s="34">
         <v>22</v>
       </c>
       <c r="I56" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2999,22 +3072,22 @@
         <v>27</v>
       </c>
       <c r="D57" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E57" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F57" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G57" s="34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H57" s="34">
         <v>39</v>
       </c>
       <c r="I57" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3028,22 +3101,22 @@
         <v>27</v>
       </c>
       <c r="D58" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E58" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F58" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G58" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H58" s="34">
         <v>103</v>
       </c>
       <c r="I58" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -3057,22 +3130,22 @@
         <v>27</v>
       </c>
       <c r="D59" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E59" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F59" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G59" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H59" s="34">
         <v>103</v>
       </c>
       <c r="I59" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3086,22 +3159,22 @@
         <v>25</v>
       </c>
       <c r="D60" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E60" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F60" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G60" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="H60" s="34">
+        <v>21</v>
+      </c>
+      <c r="I60" s="34" t="s">
         <v>190</v>
-      </c>
-      <c r="H60" s="34">
-        <v>21</v>
-      </c>
-      <c r="I60" s="34" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -3221,7 +3294,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>8</v>
       </c>
@@ -3250,7 +3323,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>8</v>
       </c>
@@ -3279,7 +3352,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>8</v>
       </c>
@@ -3308,7 +3381,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>8</v>
       </c>
@@ -3337,7 +3410,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>8</v>
       </c>
@@ -3366,7 +3439,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>8</v>
       </c>
@@ -3395,7 +3468,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>8</v>
       </c>
@@ -3424,7 +3497,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="32" t="s">
         <v>8</v>
       </c>
@@ -3453,7 +3526,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="32" t="s">
         <v>8</v>
       </c>
@@ -3482,7 +3555,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="32" t="s">
         <v>8</v>
       </c>
@@ -3511,7 +3584,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="32" t="s">
         <v>8</v>
       </c>
@@ -3540,7 +3613,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="32" t="s">
         <v>8</v>
       </c>
@@ -3569,7 +3642,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>8</v>
       </c>
@@ -3580,7 +3653,7 @@
         <v>39</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>16</v>
@@ -3592,13 +3665,13 @@
         <v>65</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I92" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>8</v>
       </c>
@@ -3609,7 +3682,7 @@
         <v>64</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>16</v>
@@ -3621,13 +3694,13 @@
         <v>61</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I93" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>8</v>
       </c>
@@ -3638,7 +3711,7 @@
         <v>63</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>16</v>
@@ -3650,7 +3723,7 @@
         <v>61</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I94" s="12" t="s">
         <v>112</v>
@@ -3667,7 +3740,7 @@
         <v>60</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>16</v>
@@ -3679,7 +3752,7 @@
         <v>20</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I95" s="12" t="s">
         <v>113</v>
@@ -3696,7 +3769,7 @@
         <v>59</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>16</v>
@@ -3708,7 +3781,7 @@
         <v>20</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I96" s="12" t="s">
         <v>113</v>
@@ -3725,7 +3798,7 @@
         <v>58</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E97" s="8" t="s">
         <v>16</v>
@@ -3737,7 +3810,7 @@
         <v>20</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I97" s="12" t="s">
         <v>113</v>
@@ -3754,7 +3827,7 @@
         <v>56</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E98" s="8" t="s">
         <v>16</v>
@@ -3766,7 +3839,7 @@
         <v>20</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I98" s="12" t="s">
         <v>113</v>
@@ -3783,7 +3856,7 @@
         <v>55</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>16</v>
@@ -3795,7 +3868,7 @@
         <v>20</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I99" s="12" t="s">
         <v>113</v>
@@ -3812,7 +3885,7 @@
         <v>54</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>16</v>
@@ -3824,7 +3897,7 @@
         <v>20</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I100" s="12" t="s">
         <v>113</v>
@@ -3841,7 +3914,7 @@
         <v>53</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>16</v>
@@ -3853,7 +3926,7 @@
         <v>20</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I101" s="12" t="s">
         <v>113</v>
@@ -3870,7 +3943,7 @@
         <v>52</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>16</v>
@@ -3882,7 +3955,7 @@
         <v>20</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I102" s="12" t="s">
         <v>113</v>
@@ -3899,7 +3972,7 @@
         <v>51</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E103" s="8" t="s">
         <v>16</v>
@@ -3911,7 +3984,7 @@
         <v>20</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I103" s="12" t="s">
         <v>113</v>
@@ -3928,7 +4001,7 @@
         <v>50</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E104" s="8" t="s">
         <v>16</v>
@@ -3940,7 +4013,7 @@
         <v>20</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I104" s="12" t="s">
         <v>113</v>
@@ -3957,7 +4030,7 @@
         <v>49</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>16</v>
@@ -3969,7 +4042,7 @@
         <v>20</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I105" s="12" t="s">
         <v>113</v>
@@ -3986,7 +4059,7 @@
         <v>48</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>16</v>
@@ -3998,7 +4071,7 @@
         <v>20</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I106" s="12" t="s">
         <v>113</v>
@@ -4015,7 +4088,7 @@
         <v>47</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E107" s="8" t="s">
         <v>16</v>
@@ -4027,7 +4100,7 @@
         <v>20</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I107" s="12" t="s">
         <v>113</v>
@@ -4044,7 +4117,7 @@
         <v>46</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>16</v>
@@ -4056,7 +4129,7 @@
         <v>20</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I108" s="12" t="s">
         <v>113</v>
@@ -4073,7 +4146,7 @@
         <v>45</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>16</v>
@@ -4085,7 +4158,7 @@
         <v>20</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I109" s="12" t="s">
         <v>113</v>
@@ -4102,7 +4175,7 @@
         <v>44</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>16</v>
@@ -4114,7 +4187,7 @@
         <v>20</v>
       </c>
       <c r="H110" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I110" s="12" t="s">
         <v>113</v>
@@ -4131,7 +4204,7 @@
         <v>43</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E111" s="8" t="s">
         <v>16</v>
@@ -4143,7 +4216,7 @@
         <v>20</v>
       </c>
       <c r="H111" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I111" s="12" t="s">
         <v>113</v>
@@ -4160,7 +4233,7 @@
         <v>41</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E112" s="8" t="s">
         <v>16</v>
@@ -4172,7 +4245,7 @@
         <v>20</v>
       </c>
       <c r="H112" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I112" s="12" t="s">
         <v>113</v>
@@ -4189,7 +4262,7 @@
         <v>40</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E113" s="8" t="s">
         <v>16</v>
@@ -4201,7 +4274,7 @@
         <v>20</v>
       </c>
       <c r="H113" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I113" s="12" t="s">
         <v>113</v>
@@ -4218,7 +4291,7 @@
         <v>39</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>16</v>
@@ -4230,7 +4303,7 @@
         <v>20</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I114" s="12" t="s">
         <v>113</v>
@@ -4247,7 +4320,7 @@
         <v>37</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>16</v>
@@ -4259,7 +4332,7 @@
         <v>20</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I115" s="12" t="s">
         <v>113</v>
@@ -4276,7 +4349,7 @@
         <v>36</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E116" s="8" t="s">
         <v>16</v>
@@ -4288,7 +4361,7 @@
         <v>20</v>
       </c>
       <c r="H116" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I116" s="12" t="s">
         <v>113</v>
@@ -4305,7 +4378,7 @@
         <v>35</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E117" s="8" t="s">
         <v>16</v>
@@ -4317,7 +4390,7 @@
         <v>20</v>
       </c>
       <c r="H117" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I117" s="12" t="s">
         <v>113</v>
@@ -4334,7 +4407,7 @@
         <v>34</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>16</v>
@@ -4346,7 +4419,7 @@
         <v>20</v>
       </c>
       <c r="H118" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I118" s="12" t="s">
         <v>113</v>
@@ -4363,7 +4436,7 @@
         <v>33</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E119" s="8" t="s">
         <v>16</v>
@@ -4375,7 +4448,7 @@
         <v>20</v>
       </c>
       <c r="H119" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I119" s="12" t="s">
         <v>113</v>
@@ -4392,7 +4465,7 @@
         <v>32</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>16</v>
@@ -4404,7 +4477,7 @@
         <v>20</v>
       </c>
       <c r="H120" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I120" s="12" t="s">
         <v>113</v>
@@ -4421,7 +4494,7 @@
         <v>31</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E121" s="8" t="s">
         <v>16</v>
@@ -4433,7 +4506,7 @@
         <v>20</v>
       </c>
       <c r="H121" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I121" s="12" t="s">
         <v>113</v>
@@ -4450,7 +4523,7 @@
         <v>30</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E122" s="8" t="s">
         <v>16</v>
@@ -4462,7 +4535,7 @@
         <v>20</v>
       </c>
       <c r="H122" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I122" s="12" t="s">
         <v>113</v>
@@ -4479,7 +4552,7 @@
         <v>29</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E123" s="8" t="s">
         <v>16</v>
@@ -4491,7 +4564,7 @@
         <v>20</v>
       </c>
       <c r="H123" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I123" s="12" t="s">
         <v>113</v>
@@ -4508,7 +4581,7 @@
         <v>28</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E124" s="8" t="s">
         <v>16</v>
@@ -4520,7 +4593,7 @@
         <v>20</v>
       </c>
       <c r="H124" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I124" s="12" t="s">
         <v>113</v>
@@ -4537,7 +4610,7 @@
         <v>27</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E125" s="8" t="s">
         <v>16</v>
@@ -4549,7 +4622,7 @@
         <v>20</v>
       </c>
       <c r="H125" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I125" s="12" t="s">
         <v>113</v>
@@ -4566,7 +4639,7 @@
         <v>26</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E126" s="8" t="s">
         <v>16</v>
@@ -4578,7 +4651,7 @@
         <v>20</v>
       </c>
       <c r="H126" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I126" s="12" t="s">
         <v>113</v>
@@ -4595,7 +4668,7 @@
         <v>25</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E127" s="8" t="s">
         <v>16</v>
@@ -4607,7 +4680,7 @@
         <v>20</v>
       </c>
       <c r="H127" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I127" s="12" t="s">
         <v>113</v>
@@ -4624,7 +4697,7 @@
         <v>24</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E128" s="8" t="s">
         <v>16</v>
@@ -4636,7 +4709,7 @@
         <v>20</v>
       </c>
       <c r="H128" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I128" s="12" t="s">
         <v>113</v>
@@ -4653,7 +4726,7 @@
         <v>22</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E129" s="8" t="s">
         <v>16</v>
@@ -4665,13 +4738,13 @@
         <v>20</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I129" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>8</v>
       </c>
@@ -4682,7 +4755,7 @@
         <v>14</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E130" s="8" t="s">
         <v>16</v>
@@ -4694,13 +4767,13 @@
         <v>13</v>
       </c>
       <c r="H130" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I130" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>8</v>
       </c>
@@ -4711,7 +4784,7 @@
         <v>12</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E131" s="8" t="s">
         <v>16</v>
@@ -4723,13 +4796,13 @@
         <v>11</v>
       </c>
       <c r="H131" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I131" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
         <v>8</v>
       </c>
@@ -4740,7 +4813,7 @@
         <v>10</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E132" s="8" t="s">
         <v>16</v>
@@ -4752,13 +4825,13 @@
         <v>9</v>
       </c>
       <c r="H132" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I132" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>8</v>
       </c>
@@ -4769,7 +4842,7 @@
         <v>6</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E133" s="8" t="s">
         <v>16</v>
@@ -4781,13 +4854,13 @@
         <v>4</v>
       </c>
       <c r="H133" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I133" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
         <v>8</v>
       </c>
@@ -4796,7 +4869,7 @@
       </c>
       <c r="C134" s="8"/>
       <c r="D134" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E134" s="8" t="s">
         <v>93</v>
@@ -4808,13 +4881,13 @@
         <v>95</v>
       </c>
       <c r="H134" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I134" s="12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
         <v>8</v>
       </c>
@@ -4823,7 +4896,7 @@
       </c>
       <c r="C135" s="8"/>
       <c r="D135" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E135" s="8" t="s">
         <v>93</v>
@@ -4835,13 +4908,13 @@
         <v>94</v>
       </c>
       <c r="H135" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I135" s="12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
         <v>8</v>
       </c>
@@ -4850,7 +4923,7 @@
       </c>
       <c r="C136" s="8"/>
       <c r="D136" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E136" s="8" t="s">
         <v>93</v>
@@ -4862,16 +4935,100 @@
         <v>92</v>
       </c>
       <c r="H136" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I136" s="12" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C137" s="8"/>
+      <c r="D137" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H137"/>
+      <c r="I137"/>
+    </row>
+    <row r="138" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" t="s">
+        <v>38</v>
+      </c>
+      <c r="C138" t="s">
+        <v>197</v>
+      </c>
+      <c r="D138" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E138" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F138" t="s">
+        <v>21</v>
+      </c>
+      <c r="G138" t="s">
+        <v>20</v>
+      </c>
+      <c r="H138" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="I138" s="39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" t="s">
+        <v>38</v>
+      </c>
+      <c r="C139" t="s">
+        <v>198</v>
+      </c>
+      <c r="D139" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E139" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F139" t="s">
+        <v>21</v>
+      </c>
+      <c r="G139" t="s">
+        <v>20</v>
+      </c>
+      <c r="H139" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="I139" s="39" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:V2"/>
   </mergeCells>
+  <conditionalFormatting sqref="C138:C139">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="3">
@@ -4883,6 +5040,1306 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9498C750-79F4-41A8-BD81-185286ECE1DD}">
+  <dimension ref="A2:N39"/>
+  <sheetViews>
+    <sheetView topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21:O22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" t="s">
+        <v>42</v>
+      </c>
+      <c r="L20" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" t="s">
+        <v>197</v>
+      </c>
+      <c r="M21" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22" t="s">
+        <v>198</v>
+      </c>
+      <c r="M22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" t="s">
+        <v>37</v>
+      </c>
+      <c r="M25" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" t="s">
+        <v>36</v>
+      </c>
+      <c r="M26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" t="s">
+        <v>32</v>
+      </c>
+      <c r="M30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" t="s">
+        <v>31</v>
+      </c>
+      <c r="M31" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" t="s">
+        <v>29</v>
+      </c>
+      <c r="M33" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M35" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>8</v>
+      </c>
+      <c r="K36" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>8</v>
+      </c>
+      <c r="K37" t="s">
+        <v>23</v>
+      </c>
+      <c r="L37" t="s">
+        <v>25</v>
+      </c>
+      <c r="M37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K38" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" t="s">
+        <v>24</v>
+      </c>
+      <c r="M38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>8</v>
+      </c>
+      <c r="K39" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" t="s">
+        <v>22</v>
+      </c>
+      <c r="M39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{9498C750-79F4-41A8-BD81-185286ECE1DD}"/>
+  <conditionalFormatting sqref="L1:L1048576 C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09861EE-8458-4085-A158-00A87B754974}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -4920,7 +6377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FE8E44-F6F6-4B11-A01C-010BE7EBE3DD}">
   <dimension ref="A1:G66"/>
   <sheetViews>
@@ -6022,7 +7479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2AD7841-DE40-4B1D-A0A4-38F18314A8D2}">
   <dimension ref="A1:K2"/>
   <sheetViews>

--- a/Documentation/Group_16_Smells_Analysis.xlsx
+++ b/Documentation/Group_16_Smells_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\welcome\Desktop\Dal Coursework\Winter_2022\CSCI 5308\SPRING PROJECT\group16\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94CF351-602A-4029-A798-EE1D913D3810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0E8935-F984-439C-BFFC-5B6FB2205288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D627CF3C-7D3F-443A-A2B4-3623376BAF05}"/>
   </bookViews>
@@ -941,7 +941,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1050,6 +1050,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1660,8 +1663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0F6571-8A5E-45E9-AF4A-EB658A1F67A9}">
   <dimension ref="A2:V139"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A62" zoomScale="45" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3213,7 +3216,7 @@
         <v>67</v>
       </c>
       <c r="C69" s="28">
-        <v>5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3235,7 +3238,7 @@
         <v>21</v>
       </c>
       <c r="C71" s="28">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3257,7 +3260,7 @@
         <v>91</v>
       </c>
       <c r="C73" s="31">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3730,1017 +3733,1017 @@
       </c>
     </row>
     <row r="95" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A95" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B95" s="8" t="s">
+      <c r="A95" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D95" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H95" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I95" s="12" t="s">
+      <c r="D95" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E95" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F95" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G95" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I95" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" s="8" t="s">
+      <c r="A96" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="D96" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H96" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I96" s="12" t="s">
+      <c r="D96" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E96" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G96" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H96" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I96" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B97" s="8" t="s">
+      <c r="A97" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="D97" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G97" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H97" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I97" s="12" t="s">
+      <c r="D97" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E97" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G97" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H97" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I97" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B98" s="8" t="s">
+      <c r="A98" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D98" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H98" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I98" s="12" t="s">
+      <c r="D98" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E98" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F98" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G98" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I98" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C99" s="8" t="s">
+      <c r="A99" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C99" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="D99" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G99" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H99" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I99" s="12" t="s">
+      <c r="D99" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E99" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F99" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G99" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H99" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I99" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C100" s="8" t="s">
+      <c r="A100" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C100" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="D100" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H100" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I100" s="12" t="s">
+      <c r="D100" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E100" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G100" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H100" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I100" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C101" s="8" t="s">
+      <c r="A101" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C101" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D101" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H101" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I101" s="12" t="s">
+      <c r="D101" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E101" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G101" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H101" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I101" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A102" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C102" s="8" t="s">
+      <c r="A102" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C102" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="D102" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H102" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I102" s="12" t="s">
+      <c r="D102" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E102" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G102" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H102" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I102" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A103" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C103" s="8" t="s">
+      <c r="A103" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C103" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="D103" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F103" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G103" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H103" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I103" s="12" t="s">
+      <c r="D103" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E103" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F103" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G103" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H103" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I103" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A104" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C104" s="8" t="s">
+      <c r="A104" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C104" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D104" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F104" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G104" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H104" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I104" s="12" t="s">
+      <c r="D104" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E104" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G104" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I104" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A105" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C105" s="8" t="s">
+      <c r="A105" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C105" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D105" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G105" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H105" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I105" s="12" t="s">
+      <c r="D105" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E105" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G105" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H105" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I105" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A106" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C106" s="8" t="s">
+      <c r="A106" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C106" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D106" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G106" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H106" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I106" s="12" t="s">
+      <c r="D106" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E106" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G106" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H106" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I106" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A107" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C107" s="8" t="s">
+      <c r="A107" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C107" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="D107" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F107" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G107" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H107" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I107" s="12" t="s">
+      <c r="D107" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E107" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F107" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G107" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I107" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A108" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C108" s="8" t="s">
+      <c r="A108" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C108" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D108" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G108" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H108" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I108" s="12" t="s">
+      <c r="D108" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E108" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F108" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G108" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H108" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I108" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C109" s="8" t="s">
+      <c r="A109" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C109" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D109" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G109" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H109" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I109" s="12" t="s">
+      <c r="D109" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E109" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F109" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G109" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H109" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I109" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A110" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C110" s="8" t="s">
+      <c r="A110" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C110" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D110" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H110" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I110" s="12" t="s">
+      <c r="D110" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E110" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F110" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G110" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H110" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I110" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A111" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C111" s="8" t="s">
+      <c r="A111" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C111" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="D111" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G111" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H111" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I111" s="12" t="s">
+      <c r="D111" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E111" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F111" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G111" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H111" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I111" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A112" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C112" s="8" t="s">
+      <c r="A112" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C112" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D112" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F112" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G112" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H112" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I112" s="12" t="s">
+      <c r="D112" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E112" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F112" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G112" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H112" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I112" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A113" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B113" s="8" t="s">
+      <c r="A113" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="C113" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D113" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G113" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H113" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I113" s="12" t="s">
+      <c r="D113" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E113" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F113" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G113" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H113" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I113" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A114" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B114" s="8" t="s">
+      <c r="A114" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C114" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D114" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F114" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G114" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H114" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I114" s="12" t="s">
+      <c r="D114" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E114" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F114" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G114" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H114" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I114" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A115" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B115" s="8" t="s">
+      <c r="A115" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C115" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D115" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G115" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H115" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I115" s="12" t="s">
+      <c r="D115" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E115" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F115" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G115" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H115" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I115" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A116" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C116" s="8" t="s">
+      <c r="A116" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D116" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F116" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G116" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H116" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I116" s="12" t="s">
+      <c r="D116" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E116" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F116" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G116" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H116" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I116" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A117" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C117" s="8" t="s">
+      <c r="A117" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C117" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D117" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G117" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H117" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I117" s="12" t="s">
+      <c r="D117" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E117" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F117" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G117" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H117" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I117" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A118" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C118" s="8" t="s">
+      <c r="A118" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C118" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D118" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G118" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H118" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I118" s="12" t="s">
+      <c r="D118" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E118" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F118" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G118" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H118" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I118" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A119" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C119" s="8" t="s">
+      <c r="A119" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C119" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="D119" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G119" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H119" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I119" s="12" t="s">
+      <c r="D119" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E119" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F119" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G119" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H119" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I119" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A120" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C120" s="8" t="s">
+      <c r="A120" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D120" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F120" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H120" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I120" s="12" t="s">
+      <c r="D120" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E120" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F120" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G120" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H120" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I120" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A121" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C121" s="8" t="s">
+      <c r="A121" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D121" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G121" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H121" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I121" s="12" t="s">
+      <c r="D121" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E121" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F121" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G121" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H121" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I121" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A122" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C122" s="8" t="s">
+      <c r="A122" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C122" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D122" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G122" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H122" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I122" s="12" t="s">
+      <c r="D122" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E122" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F122" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G122" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H122" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I122" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A123" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C123" s="8" t="s">
+      <c r="A123" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D123" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G123" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H123" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I123" s="12" t="s">
+      <c r="D123" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E123" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F123" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G123" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H123" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I123" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A124" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C124" s="8" t="s">
+      <c r="A124" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D124" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F124" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G124" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H124" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I124" s="12" t="s">
+      <c r="D124" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E124" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F124" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G124" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H124" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I124" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A125" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C125" s="8" t="s">
+      <c r="A125" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C125" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D125" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F125" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G125" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H125" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I125" s="12" t="s">
+      <c r="D125" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E125" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F125" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G125" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H125" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I125" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A126" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C126" s="8" t="s">
+      <c r="A126" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C126" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D126" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G126" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H126" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I126" s="12" t="s">
+      <c r="D126" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E126" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F126" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G126" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H126" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I126" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A127" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C127" s="8" t="s">
+      <c r="A127" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C127" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D127" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E127" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F127" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G127" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H127" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I127" s="12" t="s">
+      <c r="D127" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E127" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F127" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G127" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H127" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I127" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A128" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C128" s="8" t="s">
+      <c r="A128" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C128" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D128" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F128" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G128" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H128" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I128" s="12" t="s">
+      <c r="D128" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E128" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F128" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G128" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H128" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I128" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A129" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C129" s="8" t="s">
+      <c r="A129" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C129" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D129" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F129" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G129" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H129" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I129" s="12" t="s">
+      <c r="D129" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E129" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F129" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G129" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H129" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I129" s="32" t="s">
         <v>113</v>
       </c>
     </row>
